--- a/input_data/admin_data/URY/_clean/total-pre-URY.xlsx
+++ b/input_data/admin_data/URY/_clean/total-pre-URY.xlsx
@@ -20,7 +20,415 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_60</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Miss_age</t>
+  </si>
+  <si>
+    <t>lab_inc</t>
+  </si>
+  <si>
+    <t>mix_inc</t>
+  </si>
+  <si>
+    <t>pen_inc</t>
+  </si>
+  <si>
+    <t>cap_inc</t>
+  </si>
+  <si>
+    <t>topavg</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
   <si>
     <t>N</t>
   </si>
@@ -578,55 +986,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="O1" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="P1" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="Q1" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2">
@@ -2907,22 +3315,22 @@
         <v>0.58636511648559841</v>
       </c>
       <c r="G52">
-        <v>0.31491074864568841</v>
+        <v>0.3149403510849294</v>
       </c>
       <c r="H52">
-        <v>0.092566827506586499</v>
+        <v>0.092537225067345505</v>
       </c>
       <c r="I52">
         <v>0.0061573073621266003</v>
       </c>
       <c r="J52">
-        <v>0.78219043167765057</v>
+        <v>0.78223516172004082</v>
       </c>
       <c r="K52">
         <v>0.0134826169018058</v>
       </c>
       <c r="L52">
-        <v>0.13143760613320979</v>
+        <v>0.13139287609081959</v>
       </c>
       <c r="M52">
         <v>0.072889345289507093</v>
@@ -2951,31 +3359,31 @@
         <v>6074.6539464011994</v>
       </c>
       <c r="D53">
-        <v>0.42322607382848348</v>
+        <v>0.42325567626772448</v>
       </c>
       <c r="E53">
-        <v>0.57677392617151657</v>
+        <v>0.57674432373227558</v>
       </c>
       <c r="F53">
         <v>0.5626535626535627</v>
       </c>
       <c r="G53">
-        <v>0.30028714366063758</v>
+        <v>0.30025754122139658</v>
       </c>
       <c r="H53">
-        <v>0.131346022912288</v>
+        <v>0.131375625351529</v>
       </c>
       <c r="I53">
         <v>0.0057132707735117003</v>
       </c>
       <c r="J53">
-        <v>0.76118937938458497</v>
+        <v>0.76116776228151506</v>
       </c>
       <c r="K53">
         <v>0.0148652094911613</v>
       </c>
       <c r="L53">
-        <v>0.18930550357230461</v>
+        <v>0.18932712067537449</v>
       </c>
       <c r="M53">
         <v>0.034639907548259297</v>
@@ -3010,10 +3418,10 @@
         <v>0.59361771409964181</v>
       </c>
       <c r="F54">
-        <v>0.52858115508717918</v>
+        <v>0.52861075752642017</v>
       </c>
       <c r="G54">
-        <v>0.31636126816849708</v>
+        <v>0.31633166572925608</v>
       </c>
       <c r="H54">
         <v>0.14937390841005299</v>
@@ -3022,13 +3430,13 @@
         <v>0.0056836683342706999</v>
       </c>
       <c r="J54">
-        <v>0.75066633341457256</v>
+        <v>0.75070108612292219</v>
       </c>
       <c r="K54">
         <v>0.013779784553747501</v>
       </c>
       <c r="L54">
-        <v>0.20856202962878551</v>
+        <v>0.20852727692043591</v>
       </c>
       <c r="M54">
         <v>0.026991852394685999</v>
@@ -3057,10 +3465,10 @@
         <v>13109.659272718231</v>
       </c>
       <c r="D55">
-        <v>0.45671995263469511</v>
+        <v>0.45666074600355239</v>
       </c>
       <c r="E55">
-        <v>0.543280047365305</v>
+        <v>0.54333925399644767</v>
       </c>
       <c r="F55">
         <v>0.54878626406157494</v>
@@ -3075,13 +3483,13 @@
         <v>0.0060982830076968999</v>
       </c>
       <c r="J55">
-        <v>0.77606593915803967</v>
+        <v>0.77604073842666266</v>
       </c>
       <c r="K55">
         <v>0.0170561864890263</v>
       </c>
       <c r="L55">
-        <v>0.1805124752947474</v>
+        <v>0.18053767602612439</v>
       </c>
       <c r="M55">
         <v>0.026365399056791101</v>
@@ -3110,16 +3518,16 @@
         <v>17200.608482590531</v>
       </c>
       <c r="D56">
-        <v>0.44187561055030927</v>
+        <v>0.44190521298955032</v>
       </c>
       <c r="E56">
-        <v>0.55812438944969067</v>
+        <v>0.55809478701044968</v>
       </c>
       <c r="F56">
-        <v>0.50264941831206889</v>
+        <v>0.50261981587282789</v>
       </c>
       <c r="G56">
-        <v>0.29122879725289358</v>
+        <v>0.29125839969213457</v>
       </c>
       <c r="H56">
         <v>0.20040851366152571</v>
@@ -3169,10 +3577,10 @@
         <v>0.57644829933986563</v>
       </c>
       <c r="F57">
-        <v>0.48482874988899077</v>
+        <v>0.48479914744974978</v>
       </c>
       <c r="G57">
-        <v>0.28868298747816817</v>
+        <v>0.28871258991740922</v>
       </c>
       <c r="H57">
         <v>0.22151505284035411</v>
@@ -3216,31 +3624,31 @@
         <v>24921.250675132189</v>
       </c>
       <c r="D58">
-        <v>0.40590864687250228</v>
+        <v>0.40584944199402029</v>
       </c>
       <c r="E58">
-        <v>0.59409135312749772</v>
+        <v>0.59415055800597971</v>
       </c>
       <c r="F58">
-        <v>0.46727450341908172</v>
+        <v>0.46730410585832272</v>
       </c>
       <c r="G58">
-        <v>0.31556200230899029</v>
+        <v>0.3154731949912673</v>
       </c>
       <c r="H58">
-        <v>0.2129599478997069</v>
+        <v>0.21301915277818889</v>
       </c>
       <c r="I58">
         <v>0.0042035463722211001</v>
       </c>
       <c r="J58">
-        <v>0.73728696557230511</v>
+        <v>0.73722657345011555</v>
       </c>
       <c r="K58">
         <v>0.0128413384165068</v>
       </c>
       <c r="L58">
-        <v>0.22917292787556889</v>
+        <v>0.22923331999775859</v>
       </c>
       <c r="M58">
         <v>0.020698768142823901</v>
@@ -3269,31 +3677,31 @@
         <v>28755.251877904739</v>
       </c>
       <c r="D59">
-        <v>0.43557029099197769</v>
+        <v>0.43565909830970068</v>
       </c>
       <c r="E59">
-        <v>0.56442970900802225</v>
+        <v>0.56434090169029927</v>
       </c>
       <c r="F59">
         <v>0.48944673041058578</v>
       </c>
       <c r="G59">
-        <v>0.30241851928598917</v>
+        <v>0.30247772416447122</v>
       </c>
       <c r="H59">
-        <v>0.20322074538942009</v>
+        <v>0.2031615405109381</v>
       </c>
       <c r="I59">
         <v>0.0049140049140049</v>
       </c>
       <c r="J59">
-        <v>0.72950948143768179</v>
+        <v>0.72956182134491965</v>
       </c>
       <c r="K59">
         <v>0.014703923069430301</v>
       </c>
       <c r="L59">
-        <v>0.23570757860985109</v>
+        <v>0.23565523870261321</v>
       </c>
       <c r="M59">
         <v>0.020079016894602199</v>
@@ -3322,10 +3730,10 @@
         <v>32396.743076440431</v>
       </c>
       <c r="D60">
-        <v>0.36665581243894502</v>
+        <v>0.36656700512122198</v>
       </c>
       <c r="E60">
-        <v>0.63334418756105504</v>
+        <v>0.63343299487877802</v>
       </c>
       <c r="F60">
         <v>0.28302892158313853</v>
@@ -3375,31 +3783,31 @@
         <v>34847.943966589883</v>
       </c>
       <c r="D61">
-        <v>0.4487862640615749</v>
+        <v>0.44887507400828891</v>
       </c>
       <c r="E61">
-        <v>0.55121373593842504</v>
+        <v>0.55112492599171103</v>
       </c>
       <c r="F61">
-        <v>0.38134991119005329</v>
+        <v>0.3815571343990527</v>
       </c>
       <c r="G61">
-        <v>0.2295441089402013</v>
+        <v>0.2293664890467732</v>
       </c>
       <c r="H61">
-        <v>0.38478389579632921</v>
+        <v>0.38475429248075782</v>
       </c>
       <c r="I61">
         <v>0.0043220840734161997</v>
       </c>
       <c r="J61">
-        <v>0.56207350336207429</v>
+        <v>0.56208606236463199</v>
       </c>
       <c r="K61">
         <v>0.012974718793882701</v>
       </c>
       <c r="L61">
-        <v>0.40806907514771451</v>
+        <v>0.40805651614515681</v>
       </c>
       <c r="M61">
         <v>0.016882702694114599</v>
@@ -3428,31 +3836,31 @@
         <v>38237.00399309153</v>
       </c>
       <c r="D62">
-        <v>0.47239572540777358</v>
+        <v>0.47233652052929159</v>
       </c>
       <c r="E62">
-        <v>0.52760427459222647</v>
+        <v>0.52766347947070846</v>
       </c>
       <c r="F62">
-        <v>0.3827595393860454</v>
+        <v>0.38261152718984037</v>
       </c>
       <c r="G62">
-        <v>0.22699150409993779</v>
+        <v>0.2271099138569018</v>
       </c>
       <c r="H62">
-        <v>0.38643024185192859</v>
+        <v>0.38645984429116959</v>
       </c>
       <c r="I62">
         <v>0.0038187146620882002</v>
       </c>
       <c r="J62">
-        <v>0.56570471788640209</v>
+        <v>0.56569327236462907</v>
       </c>
       <c r="K62">
         <v>0.0107424849323487</v>
       </c>
       <c r="L62">
-        <v>0.40757248869519241</v>
+        <v>0.40758393421696543</v>
       </c>
       <c r="M62">
         <v>0.015980308474503602</v>
@@ -3481,16 +3889,16 @@
         <v>41474.150206014478</v>
       </c>
       <c r="D63">
-        <v>0.46250851070128179</v>
+        <v>0.4624789082620408</v>
       </c>
       <c r="E63">
-        <v>0.53749148929871815</v>
+        <v>0.53752109173795914</v>
       </c>
       <c r="F63">
-        <v>0.38447648086202302</v>
+        <v>0.38441727598354097</v>
       </c>
       <c r="G63">
-        <v>0.23039578461265209</v>
+        <v>0.2304549894911341</v>
       </c>
       <c r="H63">
         <v>0.38190106864805662</v>
@@ -3534,22 +3942,22 @@
         <v>44675.421915587722</v>
       </c>
       <c r="D64">
-        <v>0.47236612296853259</v>
+        <v>0.47248453272549662</v>
       </c>
       <c r="E64">
-        <v>0.52763387703146747</v>
+        <v>0.52751546727450349</v>
       </c>
       <c r="F64">
-        <v>0.32020958526982618</v>
+        <v>0.32009117551286231</v>
       </c>
       <c r="G64">
-        <v>0.22169266747579999</v>
+        <v>0.22157425771883599</v>
       </c>
       <c r="H64">
-        <v>0.45501909357331038</v>
+        <v>0.45528551552647939</v>
       </c>
       <c r="I64">
-        <v>0.0030786536810633001</v>
+        <v>0.0030490512418223001</v>
       </c>
       <c r="J64">
         <v>0.44583505234813869</v>
@@ -3587,31 +3995,31 @@
         <v>46765.240499235893</v>
       </c>
       <c r="D65">
-        <v>0.47911547911547908</v>
+        <v>0.47799058642432141</v>
       </c>
       <c r="E65">
-        <v>0.52088452088452086</v>
+        <v>0.52200941357567865</v>
       </c>
       <c r="F65">
-        <v>0.34602291228797261</v>
+        <v>0.34605251472721349</v>
       </c>
       <c r="G65">
-        <v>0.31280897545957792</v>
+        <v>0.31354903644060272</v>
       </c>
       <c r="H65">
-        <v>0.34004321956129191</v>
+        <v>0.33924395370178501</v>
       </c>
       <c r="I65">
-        <v>0.0011248926911578</v>
+        <v>0.0011544951303987</v>
       </c>
       <c r="J65">
-        <v>0.1973908444467127</v>
+        <v>0.1973796859068791</v>
       </c>
       <c r="K65">
         <v>0.0034000845666184</v>
       </c>
       <c r="L65">
-        <v>0.79452306389249727</v>
+        <v>0.79453422243233085</v>
       </c>
       <c r="M65">
         <v>0.0046860070955041999</v>
@@ -3640,31 +4048,31 @@
         <v>47656.6979917157</v>
       </c>
       <c r="D66">
-        <v>0.50195381882770873</v>
+        <v>0.50301953818827705</v>
       </c>
       <c r="E66">
-        <v>0.49804618117229132</v>
+        <v>0.49698046181172301</v>
       </c>
       <c r="F66">
-        <v>0.39840142095914738</v>
+        <v>0.39849023090586139</v>
       </c>
       <c r="G66">
-        <v>0.30488454706927182</v>
+        <v>0.30426287744227348</v>
       </c>
       <c r="H66">
-        <v>0.29458259325044411</v>
+        <v>0.29511545293072822</v>
       </c>
       <c r="I66">
         <v>0.0021314387211367998</v>
       </c>
       <c r="J66">
-        <v>0.36722496615952332</v>
+        <v>0.36723591629389862</v>
       </c>
       <c r="K66">
         <v>0.0070908881622365003</v>
       </c>
       <c r="L66">
-        <v>0.61687379995922809</v>
+        <v>0.61686284982485273</v>
       </c>
       <c r="M66">
         <v>0.0088103457240844008</v>
@@ -3699,25 +4107,25 @@
         <v>0.60921819957964529</v>
       </c>
       <c r="F67">
-        <v>0.19158698676770969</v>
+        <v>0.19161658920695071</v>
       </c>
       <c r="G67">
         <v>0.12974749119327431</v>
       </c>
       <c r="H67">
-        <v>0.67739261715165333</v>
+        <v>0.67736301471241234</v>
       </c>
       <c r="I67">
         <v>0.0012729048873627001</v>
       </c>
       <c r="J67">
-        <v>0.31246301826858408</v>
+        <v>0.31249309558189742</v>
       </c>
       <c r="K67">
         <v>0.0047472957656083002</v>
       </c>
       <c r="L67">
-        <v>0.67652098185053566</v>
+        <v>0.67649090453722249</v>
       </c>
       <c r="M67">
         <v>0.0062687041266029997</v>
@@ -3752,25 +4160,25 @@
         <v>0.52215742577188362</v>
       </c>
       <c r="F68">
-        <v>0.37598058079985791</v>
+        <v>0.37595097836061692</v>
       </c>
       <c r="G68">
         <v>0.22986294070631419</v>
       </c>
       <c r="H68">
-        <v>0.38995293212160681</v>
+        <v>0.3899825345608478</v>
       </c>
       <c r="I68">
         <v>0.0042035463722211001</v>
       </c>
       <c r="J68">
-        <v>0.57374475539015657</v>
+        <v>0.57371604351187677</v>
       </c>
       <c r="K68">
         <v>0.0108807211468548</v>
       </c>
       <c r="L68">
-        <v>0.40031007897774568</v>
+        <v>0.40033879085602547</v>
       </c>
       <c r="M68">
         <v>0.0150644444633027</v>
@@ -3799,16 +4207,16 @@
         <v>55832.682509213759</v>
       </c>
       <c r="D69">
-        <v>0.5025902134335869</v>
+        <v>0.50261981587282789</v>
       </c>
       <c r="E69">
-        <v>0.4974097865664131</v>
+        <v>0.49738018412717211</v>
       </c>
       <c r="F69">
-        <v>0.39693910778248132</v>
+        <v>0.39696871022172231</v>
       </c>
       <c r="G69">
-        <v>0.23711553832035759</v>
+        <v>0.23708593588111659</v>
       </c>
       <c r="H69">
         <v>0.36274829045913382</v>
@@ -3858,25 +4266,25 @@
         <v>0.49270299872709511</v>
       </c>
       <c r="F70">
-        <v>0.41597347621444009</v>
+        <v>0.41594387377519909</v>
       </c>
       <c r="G70">
-        <v>0.2464995115597525</v>
+        <v>0.24658831887747551</v>
       </c>
       <c r="H70">
-        <v>0.3336194902459963</v>
+        <v>0.33356028536751431</v>
       </c>
       <c r="I70">
         <v>0.0039075219798111</v>
       </c>
       <c r="J70">
-        <v>0.63369221196459213</v>
+        <v>0.63369441640836544</v>
       </c>
       <c r="K70">
         <v>0.013689791175329201</v>
       </c>
       <c r="L70">
-        <v>0.33717839498353402</v>
+        <v>0.33717619053976072</v>
       </c>
       <c r="M70">
         <v>0.015439601871399301</v>
@@ -3905,31 +4313,31 @@
         <v>63018.120963429887</v>
       </c>
       <c r="D71">
-        <v>0.44095793493383861</v>
+        <v>0.44092833249459762</v>
       </c>
       <c r="E71">
-        <v>0.55904206506616139</v>
+        <v>0.55907166750540238</v>
       </c>
       <c r="F71">
         <v>0.35383795624759479</v>
       </c>
       <c r="G71">
-        <v>0.20333915514638409</v>
+        <v>0.20325034782866111</v>
       </c>
       <c r="H71">
-        <v>0.43983304224268083</v>
+        <v>0.43992184956040381</v>
       </c>
       <c r="I71">
         <v>0.0029898463633403001</v>
       </c>
       <c r="J71">
-        <v>0.5291050700358304</v>
+        <v>0.52907254537055526</v>
       </c>
       <c r="K71">
         <v>0.011332584403003</v>
       </c>
       <c r="L71">
-        <v>0.44723604281218082</v>
+        <v>0.44726856747745602</v>
       </c>
       <c r="M71">
         <v>0.012326302745717201</v>
@@ -3967,22 +4375,22 @@
         <v>0.35953226761397278</v>
       </c>
       <c r="G72">
-        <v>0.21672587329780929</v>
+        <v>0.21675547661338071</v>
       </c>
       <c r="H72">
-        <v>0.42092954410894018</v>
+        <v>0.42089994079336879</v>
       </c>
       <c r="I72">
         <v>0.0028123149792776999</v>
       </c>
       <c r="J72">
-        <v>0.54921729879546122</v>
+        <v>0.54924615390167275</v>
       </c>
       <c r="K72">
         <v>0.010693415476942501</v>
       </c>
       <c r="L72">
-        <v>0.42926550287180087</v>
+        <v>0.42923664776558929</v>
       </c>
       <c r="M72">
         <v>0.0108237828658065</v>
@@ -4017,13 +4425,13 @@
         <v>0.46108759361771412</v>
       </c>
       <c r="F73">
-        <v>0.40362925905094582</v>
+        <v>0.40365886149018682</v>
       </c>
       <c r="G73">
         <v>0.23169829193925581</v>
       </c>
       <c r="H73">
-        <v>0.36177140996418111</v>
+        <v>0.36174180752494012</v>
       </c>
       <c r="I73">
         <v>0.0029010390456173998</v>
@@ -4064,19 +4472,19 @@
         <v>73330.520103062736</v>
       </c>
       <c r="D74">
-        <v>0.54027411858737162</v>
+        <v>0.54024451614813063</v>
       </c>
       <c r="E74">
-        <v>0.45972588141262838</v>
+        <v>0.45975548385186937</v>
       </c>
       <c r="F74">
         <v>0.40999378348775939</v>
       </c>
       <c r="G74">
-        <v>0.2288860602113614</v>
+        <v>0.22885645777212041</v>
       </c>
       <c r="H74">
-        <v>0.35795269530209289</v>
+        <v>0.35798229774133389</v>
       </c>
       <c r="I74">
         <v>0.0031674609987863002</v>
@@ -4123,10 +4531,10 @@
         <v>0.47920428643320212</v>
       </c>
       <c r="F75">
-        <v>0.38080577839613983</v>
+        <v>0.38077617595689878</v>
       </c>
       <c r="G75">
-        <v>0.21082857227435539</v>
+        <v>0.21085817471359641</v>
       </c>
       <c r="H75">
         <v>0.4057606346762973</v>
@@ -4170,19 +4578,19 @@
         <v>81029.566179259418</v>
       </c>
       <c r="D76">
-        <v>0.52701222580740648</v>
+        <v>0.52707143068588846</v>
       </c>
       <c r="E76">
-        <v>0.47298777419259352</v>
+        <v>0.47292856931411148</v>
       </c>
       <c r="F76">
         <v>0.3840324442734081</v>
       </c>
       <c r="G76">
-        <v>0.21520973328202239</v>
+        <v>0.21523933572126339</v>
       </c>
       <c r="H76">
-        <v>0.39794559071667512</v>
+        <v>0.39791598827743407</v>
       </c>
       <c r="I76">
         <v>0.0028122317278943998</v>
@@ -4223,19 +4631,19 @@
         <v>85452.413043066001</v>
       </c>
       <c r="D77">
-        <v>0.52680500873271963</v>
+        <v>0.52674580385423764</v>
       </c>
       <c r="E77">
-        <v>0.47319499126728037</v>
+        <v>0.47325419614576242</v>
       </c>
       <c r="F77">
         <v>0.41958497380184129</v>
       </c>
       <c r="G77">
-        <v>0.23027737485568811</v>
+        <v>0.23024777241644709</v>
       </c>
       <c r="H77">
-        <v>0.34685178058672028</v>
+        <v>0.34688138302596128</v>
       </c>
       <c r="I77">
         <v>0.0032858707557503002</v>
@@ -4276,31 +4684,31 @@
         <v>90267.308171208919</v>
       </c>
       <c r="D78">
-        <v>0.51524570751924215</v>
+        <v>0.51527531083481348</v>
       </c>
       <c r="E78">
-        <v>0.48475429248075791</v>
+        <v>0.48472468916518652</v>
       </c>
       <c r="F78">
-        <v>0.41604499703966852</v>
+        <v>0.41601539372409713</v>
       </c>
       <c r="G78">
-        <v>0.23099467140319721</v>
+        <v>0.23096506808762579</v>
       </c>
       <c r="H78">
-        <v>0.34976317347542918</v>
+        <v>0.34982238010657202</v>
       </c>
       <c r="I78">
         <v>0.0031971580817052002</v>
       </c>
       <c r="J78">
-        <v>0.6266888797475566</v>
+        <v>0.62662801847435556</v>
       </c>
       <c r="K78">
         <v>0.013991543938348901</v>
       </c>
       <c r="L78">
-        <v>0.34437800252413542</v>
+        <v>0.3444388637973364</v>
       </c>
       <c r="M78">
         <v>0.0149415737858481</v>
@@ -4329,31 +4737,31 @@
         <v>95318.760198271586</v>
       </c>
       <c r="D79">
-        <v>0.50297504514371982</v>
+        <v>0.50300464758296082</v>
       </c>
       <c r="E79">
-        <v>0.49702495485628018</v>
+        <v>0.49699535241703918</v>
       </c>
       <c r="F79">
-        <v>0.39172907847606642</v>
+        <v>0.39175868091530741</v>
       </c>
       <c r="G79">
-        <v>0.226310647997395</v>
+        <v>0.226340250436636</v>
       </c>
       <c r="H79">
-        <v>0.37820076374293238</v>
+        <v>0.37814155886445039</v>
       </c>
       <c r="I79">
         <v>0.0037595097836062002</v>
       </c>
       <c r="J79">
-        <v>0.59787676290893488</v>
+        <v>0.59793439711087915</v>
       </c>
       <c r="K79">
         <v>0.016043441646872301</v>
       </c>
       <c r="L79">
-        <v>0.37128409885314911</v>
+        <v>0.37122646465120479</v>
       </c>
       <c r="M79">
         <v>0.0147956965823155</v>
@@ -4388,10 +4796,10 @@
         <v>0.49243657677392622</v>
       </c>
       <c r="F80">
-        <v>0.38216749060122562</v>
+        <v>0.38219709304046651</v>
       </c>
       <c r="G80">
-        <v>0.23015896509872411</v>
+        <v>0.23012936265948311</v>
       </c>
       <c r="H80">
         <v>0.38346999792782932</v>
@@ -4435,16 +4843,16 @@
         <v>106135.6145292935</v>
       </c>
       <c r="D81">
-        <v>0.52941002338592702</v>
+        <v>0.52938042094668603</v>
       </c>
       <c r="E81">
-        <v>0.47058997661407298</v>
+        <v>0.47061957905331397</v>
       </c>
       <c r="F81">
-        <v>0.39933690536100169</v>
+        <v>0.39930730292176081</v>
       </c>
       <c r="G81">
-        <v>0.25114709452058848</v>
+        <v>0.25117669695982953</v>
       </c>
       <c r="H81">
         <v>0.34614132204493647</v>
@@ -4759,10 +5167,10 @@
         <v>0.46016991800124329</v>
       </c>
       <c r="F87">
-        <v>0.37056333441875611</v>
+        <v>0.37053373197951511</v>
       </c>
       <c r="G87">
-        <v>0.30573399248098038</v>
+        <v>0.30576359492022143</v>
       </c>
       <c r="H87">
         <v>0.31958793404576541</v>
@@ -4812,10 +5220,10 @@
         <v>0.45803854237589181</v>
       </c>
       <c r="F88">
-        <v>0.36049850507681841</v>
+        <v>0.36052810751605929</v>
       </c>
       <c r="G88">
-        <v>0.30872383884432081</v>
+        <v>0.30869423640507981</v>
       </c>
       <c r="H88">
         <v>0.32707735117373671</v>
@@ -6979,55 +7387,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
@@ -9252,10 +9660,10 @@
         <v>0.84331851502929311</v>
       </c>
       <c r="F51">
-        <v>0.20019430623840789</v>
+        <v>0.2001648658992552</v>
       </c>
       <c r="G51">
-        <v>0.11711366914946859</v>
+        <v>0.11714310948862131</v>
       </c>
       <c r="H51">
         <v>0.0429534548237996</v>
@@ -9299,10 +9707,10 @@
         <v>2467.2049680144728</v>
       </c>
       <c r="D52">
-        <v>0.50706547338671693</v>
+        <v>0.50703603391427221</v>
       </c>
       <c r="E52">
-        <v>0.49293452661328307</v>
+        <v>0.49296396608572779</v>
       </c>
       <c r="F52">
         <v>0.53512129062647196</v>
@@ -9317,13 +9725,13 @@
         <v>0.0051519076778143999</v>
       </c>
       <c r="J52">
-        <v>0.72282963908950348</v>
+        <v>0.72277780510328926</v>
       </c>
       <c r="K52">
         <v>0.016417998730130001</v>
       </c>
       <c r="L52">
-        <v>0.13891999916867079</v>
+        <v>0.13897183315488501</v>
       </c>
       <c r="M52">
         <v>0.1218323630083729</v>
@@ -9352,10 +9760,10 @@
         <v>6431.7113556448166</v>
       </c>
       <c r="D53">
-        <v>0.39497159007271759</v>
+        <v>0.39500103041187029</v>
       </c>
       <c r="E53">
-        <v>0.60502840992728235</v>
+        <v>0.60499896958812971</v>
       </c>
       <c r="F53">
         <v>0.54923896723290255</v>
@@ -9364,19 +9772,19 @@
         <v>0.29834839697353321</v>
       </c>
       <c r="H53">
-        <v>0.14620072423234309</v>
+        <v>0.14617128389319051</v>
       </c>
       <c r="I53">
-        <v>0.0062119115612212002</v>
+        <v>0.0062413519003738996</v>
       </c>
       <c r="J53">
-        <v>0.73343953881675938</v>
+        <v>0.73342031842932798</v>
       </c>
       <c r="K53">
         <v>0.016542365853760101</v>
       </c>
       <c r="L53">
-        <v>0.21008062895489099</v>
+        <v>0.2100998493423224</v>
       </c>
       <c r="M53">
         <v>0.039937466371516302</v>
@@ -9405,31 +9813,31 @@
         <v>10826.51636281975</v>
       </c>
       <c r="D54">
-        <v>0.38578620425707311</v>
+        <v>0.38581564459622569</v>
       </c>
       <c r="E54">
-        <v>0.614213795742927</v>
+        <v>0.61418435540377425</v>
       </c>
       <c r="F54">
-        <v>0.50708040156622602</v>
+        <v>0.50713928224453142</v>
       </c>
       <c r="G54">
-        <v>0.31024229399122683</v>
+        <v>0.31018341331292137</v>
       </c>
       <c r="H54">
-        <v>0.17752524509082351</v>
+        <v>0.17755468542997621</v>
       </c>
       <c r="I54">
-        <v>0.0051520593517237001</v>
+        <v>0.0051226190125709999</v>
       </c>
       <c r="J54">
-        <v>0.70032310248973129</v>
+        <v>0.70038159422187785</v>
       </c>
       <c r="K54">
         <v>0.0166583319234598</v>
       </c>
       <c r="L54">
-        <v>0.25281484370709362</v>
+        <v>0.252756351974947</v>
       </c>
       <c r="M54">
         <v>0.0302037218881697</v>
@@ -9458,16 +9866,16 @@
         <v>15543.048889248201</v>
       </c>
       <c r="D55">
-        <v>0.42723820178408461</v>
+        <v>0.42720876144493192</v>
       </c>
       <c r="E55">
-        <v>0.57276179821591544</v>
+        <v>0.57279123855506819</v>
       </c>
       <c r="F55">
-        <v>0.53110371831483494</v>
+        <v>0.53104483763652954</v>
       </c>
       <c r="G55">
-        <v>0.28954573556687369</v>
+        <v>0.28960461624517908</v>
       </c>
       <c r="H55">
         <v>0.17340359760944449</v>
@@ -9476,13 +9884,13 @@
         <v>0.0059469485088468003</v>
       </c>
       <c r="J55">
-        <v>0.73482162901937631</v>
+        <v>0.7347970680159005</v>
       </c>
       <c r="K55">
         <v>0.0197525113201765</v>
       </c>
       <c r="L55">
-        <v>0.21654176419748081</v>
+        <v>0.21656632520095659</v>
       </c>
       <c r="M55">
         <v>0.0288840954622149</v>
@@ -9517,10 +9925,10 @@
         <v>0.6008184414284452</v>
       </c>
       <c r="F56">
-        <v>0.50566726528689609</v>
+        <v>0.50569670562604885</v>
       </c>
       <c r="G56">
-        <v>0.30382430005593658</v>
+        <v>0.30379485971678388</v>
       </c>
       <c r="H56">
         <v>0.1848558895398475</v>
@@ -9617,16 +10025,16 @@
         <v>30426.342930673061</v>
       </c>
       <c r="D58">
-        <v>0.41081049253687402</v>
+        <v>0.41083993287602671</v>
       </c>
       <c r="E58">
-        <v>0.58918950746312593</v>
+        <v>0.58916006712397329</v>
       </c>
       <c r="F58">
-        <v>0.47287072747078052</v>
+        <v>0.47290016780993321</v>
       </c>
       <c r="G58">
-        <v>0.27747519651426378</v>
+        <v>0.27744575617511108</v>
       </c>
       <c r="H58">
         <v>0.2446786586981482</v>
@@ -9670,19 +10078,19 @@
         <v>35555.181213682583</v>
       </c>
       <c r="D59">
-        <v>0.40645332234227338</v>
+        <v>0.40642388200312068</v>
       </c>
       <c r="E59">
-        <v>0.59354667765772662</v>
+        <v>0.59357611799687926</v>
       </c>
       <c r="F59">
-        <v>0.46860187829363792</v>
+        <v>0.46857243795448522</v>
       </c>
       <c r="G59">
-        <v>0.28312774163158361</v>
+        <v>0.283186622309889</v>
       </c>
       <c r="H59">
-        <v>0.24338328377542909</v>
+        <v>0.24335384343627639</v>
       </c>
       <c r="I59">
         <v>0.0048870962993493999</v>
@@ -9723,31 +10131,31 @@
         <v>39773.831149304839</v>
       </c>
       <c r="D60">
-        <v>0.37106603468071953</v>
+        <v>0.37183148349868989</v>
       </c>
       <c r="E60">
-        <v>0.62893396531928047</v>
+        <v>0.62816851650131011</v>
       </c>
       <c r="F60">
-        <v>0.2141784673359437</v>
+        <v>0.21409014631848561</v>
       </c>
       <c r="G60">
-        <v>0.13489563399770371</v>
+        <v>0.13466011128448199</v>
       </c>
       <c r="H60">
-        <v>0.64851179085583066</v>
+        <v>0.64883563458651039</v>
       </c>
       <c r="I60">
         <v>0.0024141078105220002</v>
       </c>
       <c r="J60">
-        <v>0.31137818809593121</v>
+        <v>0.31140800161768978</v>
       </c>
       <c r="K60">
         <v>0.0070466154974775999</v>
       </c>
       <c r="L60">
-        <v>0.67301285024934554</v>
+        <v>0.67298303672758686</v>
       </c>
       <c r="M60">
         <v>0.0085623461637961001</v>
@@ -9776,31 +10184,31 @@
         <v>41968.286764198521</v>
       </c>
       <c r="D61">
-        <v>0.41240027085112019</v>
+        <v>0.41160538169399707</v>
       </c>
       <c r="E61">
-        <v>0.58759972914887981</v>
+        <v>0.58839461830600293</v>
       </c>
       <c r="F61">
-        <v>0.3441281243559926</v>
+        <v>0.344187005034298</v>
       </c>
       <c r="G61">
-        <v>0.2075249506874319</v>
+        <v>0.2077310330615009</v>
       </c>
       <c r="H61">
-        <v>0.44531457002384672</v>
+        <v>0.44504960697147228</v>
       </c>
       <c r="I61">
         <v>0.0030323549327288001</v>
       </c>
       <c r="J61">
-        <v>0.50172273051543137</v>
+        <v>0.50163277282348473</v>
       </c>
       <c r="K61">
         <v>0.0117397665512546</v>
       </c>
       <c r="L61">
-        <v>0.4701590535132969</v>
+        <v>0.47024901120524359</v>
       </c>
       <c r="M61">
         <v>0.0163784494261262</v>
@@ -9829,31 +10237,31 @@
         <v>46037.763717013018</v>
       </c>
       <c r="D62">
-        <v>0.4324785821532664</v>
+        <v>0.4325080224924191</v>
       </c>
       <c r="E62">
-        <v>0.5675214178467336</v>
+        <v>0.56749197750758085</v>
       </c>
       <c r="F62">
-        <v>0.36826920246121242</v>
+        <v>0.36829864280036512</v>
       </c>
       <c r="G62">
         <v>0.22598404333617919</v>
       </c>
       <c r="H62">
-        <v>0.40212559248682539</v>
+        <v>0.40209615214767269</v>
       </c>
       <c r="I62">
         <v>0.0036211617157830001</v>
       </c>
       <c r="J62">
-        <v>0.5407993089298867</v>
+        <v>0.54085555780087424</v>
       </c>
       <c r="K62">
         <v>0.012949138598724</v>
       </c>
       <c r="L62">
-        <v>0.43005151690876181</v>
+        <v>0.42999526803777433</v>
       </c>
       <c r="M62">
         <v>0.016200035541391201</v>
@@ -9882,19 +10290,19 @@
         <v>49853.812471709673</v>
       </c>
       <c r="D63">
-        <v>0.46907292372008119</v>
+        <v>0.46910236405923389</v>
       </c>
       <c r="E63">
-        <v>0.53092707627991875</v>
+        <v>0.530897635940766</v>
       </c>
       <c r="F63">
-        <v>0.3056201607442518</v>
+        <v>0.30582624311832068</v>
       </c>
       <c r="G63">
-        <v>0.19913445402891039</v>
+        <v>0.19922277504636851</v>
       </c>
       <c r="H63">
-        <v>0.49197750758088732</v>
+        <v>0.49168310418936029</v>
       </c>
       <c r="I63">
         <v>0.0032678776459504999</v>
@@ -9935,31 +10343,31 @@
         <v>51965.956385632562</v>
       </c>
       <c r="D64">
-        <v>0.41914210851709011</v>
+        <v>0.41925986987370101</v>
       </c>
       <c r="E64">
-        <v>0.58085789148290989</v>
+        <v>0.5807401301262991</v>
       </c>
       <c r="F64">
-        <v>0.22094974534106629</v>
+        <v>0.2199193334707216</v>
       </c>
       <c r="G64">
-        <v>0.22315777077751939</v>
+        <v>0.2253363558748197</v>
       </c>
       <c r="H64">
-        <v>0.55462654929784794</v>
+        <v>0.55347837607089234</v>
       </c>
       <c r="I64">
         <v>0.0012659345835664001</v>
       </c>
       <c r="J64">
-        <v>0.1890997451582864</v>
+        <v>0.18912967160597571</v>
       </c>
       <c r="K64">
         <v>0.0042700699501664998</v>
       </c>
       <c r="L64">
-        <v>0.80118196469844194</v>
+        <v>0.80115203825075265</v>
       </c>
       <c r="M64">
         <v>0.0054482201907188003</v>
@@ -9988,31 +10396,31 @@
         <v>52885.051853982361</v>
       </c>
       <c r="D65">
-        <v>0.47973032649336123</v>
+        <v>0.47961256513675038</v>
       </c>
       <c r="E65">
-        <v>0.52026967350663877</v>
+        <v>0.52038743486324956</v>
       </c>
       <c r="F65">
-        <v>0.36014366885506521</v>
+        <v>0.36099743869049372</v>
       </c>
       <c r="G65">
-        <v>0.36491300379780373</v>
+        <v>0.36261665734389259</v>
       </c>
       <c r="H65">
-        <v>0.27441340124238228</v>
+        <v>0.27585597786086502</v>
       </c>
       <c r="I65">
         <v>0.00052992610474869996</v>
       </c>
       <c r="J65">
-        <v>0.1215541623810087</v>
+        <v>0.1215247560285352</v>
       </c>
       <c r="K65">
         <v>0.0019149614500271999</v>
       </c>
       <c r="L65">
-        <v>0.87420372559590143</v>
+        <v>0.87423313194837504</v>
       </c>
       <c r="M65">
         <v>0.0023271505690319002</v>
@@ -10041,16 +10449,16 @@
         <v>55239.179422996953</v>
       </c>
       <c r="D66">
-        <v>0.40677716607295322</v>
+        <v>0.40689492742956401</v>
       </c>
       <c r="E66">
-        <v>0.59322283392704689</v>
+        <v>0.59310507257043599</v>
       </c>
       <c r="F66">
-        <v>0.23337356846350871</v>
+        <v>0.23334412812435601</v>
       </c>
       <c r="G66">
-        <v>0.1486148320428651</v>
+        <v>0.1486442723820178</v>
       </c>
       <c r="H66">
         <v>0.61583301439632587</v>
@@ -10094,31 +10502,31 @@
         <v>57777.931692088103</v>
       </c>
       <c r="D67">
-        <v>0.46047634468749082</v>
+        <v>0.46029970265257458</v>
       </c>
       <c r="E67">
-        <v>0.53952365531250912</v>
+        <v>0.53970029734742542</v>
       </c>
       <c r="F67">
-        <v>0.34086024671004211</v>
+        <v>0.34083080637088942</v>
       </c>
       <c r="G67">
         <v>0.2061412547472547</v>
       </c>
       <c r="H67">
-        <v>0.45014278564489058</v>
+        <v>0.45017222598404327</v>
       </c>
       <c r="I67">
         <v>0.0028557128978126001</v>
       </c>
       <c r="J67">
-        <v>0.50704407091547599</v>
+        <v>0.50701359362156506</v>
       </c>
       <c r="K67">
         <v>0.011388486442021801</v>
       </c>
       <c r="L67">
-        <v>0.4675282250097329</v>
+        <v>0.46755870230364383</v>
       </c>
       <c r="M67">
         <v>0.014039217622228701</v>
@@ -10147,10 +10555,10 @@
         <v>61918.78640286436</v>
       </c>
       <c r="D68">
-        <v>0.48679600789001087</v>
+        <v>0.48682544822916363</v>
       </c>
       <c r="E68">
-        <v>0.51320399210998913</v>
+        <v>0.51317455177083637</v>
       </c>
       <c r="F68">
         <v>0.36732711160832571</v>
@@ -10165,13 +10573,13 @@
         <v>0.0036506020549356998</v>
       </c>
       <c r="J68">
-        <v>0.54864764123373766</v>
+        <v>0.5486459091074839</v>
       </c>
       <c r="K68">
         <v>0.0111908063977799</v>
       </c>
       <c r="L68">
-        <v>0.42355805717504852</v>
+        <v>0.42355978930130228</v>
       </c>
       <c r="M68">
         <v>0.0166034951937402</v>
@@ -10206,25 +10614,25 @@
         <v>0.50431300968587156</v>
       </c>
       <c r="F69">
-        <v>0.38337209644655112</v>
+        <v>0.38340153678570382</v>
       </c>
       <c r="G69">
         <v>0.22515971383990341</v>
       </c>
       <c r="H69">
-        <v>0.38820031206759498</v>
+        <v>0.38817087172844228</v>
       </c>
       <c r="I69">
         <v>0.0032678776459504999</v>
       </c>
       <c r="J69">
-        <v>0.57234954346719691</v>
+        <v>0.57237777491629704</v>
       </c>
       <c r="K69">
         <v>0.0128072498484642</v>
       </c>
       <c r="L69">
-        <v>0.400380014551316</v>
+        <v>0.40035178310221592</v>
       </c>
       <c r="M69">
         <v>0.0144631921650074</v>
@@ -10253,31 +10661,31 @@
         <v>70392.027787872037</v>
       </c>
       <c r="D70">
-        <v>0.42687235044748001</v>
+        <v>0.42678403203014598</v>
       </c>
       <c r="E70">
-        <v>0.57312764955252005</v>
+        <v>0.57321596796985397</v>
       </c>
       <c r="F70">
-        <v>0.35948539802166751</v>
+        <v>0.35942651907677808</v>
       </c>
       <c r="G70">
-        <v>0.21735162505887901</v>
+        <v>0.21732218558643429</v>
       </c>
       <c r="H70">
-        <v>0.42010127178520962</v>
+        <v>0.42018959020254359</v>
       </c>
       <c r="I70">
         <v>0.0030617051342440001</v>
       </c>
       <c r="J70">
-        <v>0.54648061645186319</v>
+        <v>0.54642012152162744</v>
       </c>
       <c r="K70">
         <v>0.012092409645716701</v>
       </c>
       <c r="L70">
-        <v>0.42832040249466768</v>
+        <v>0.42838089742490337</v>
       </c>
       <c r="M70">
         <v>0.0131065713606109</v>
@@ -10306,31 +10714,31 @@
         <v>74172.967744658425</v>
       </c>
       <c r="D71">
-        <v>0.49088821503223717</v>
+        <v>0.49094709571054262</v>
       </c>
       <c r="E71">
-        <v>0.50911178496776288</v>
+        <v>0.50905290428945738</v>
       </c>
       <c r="F71">
-        <v>0.34698383725380522</v>
+        <v>0.34704271793211061</v>
       </c>
       <c r="G71">
-        <v>0.2130597344481408</v>
+        <v>0.21308917478729361</v>
       </c>
       <c r="H71">
-        <v>0.43727735743515772</v>
+        <v>0.43718903641769952</v>
       </c>
       <c r="I71">
         <v>0.0026790708628963</v>
       </c>
       <c r="J71">
-        <v>0.5329736563211277</v>
+        <v>0.53303106923458188</v>
       </c>
       <c r="K71">
         <v>0.0103047264617362</v>
       </c>
       <c r="L71">
-        <v>0.44376469598358259</v>
+        <v>0.44370728307012841</v>
       </c>
       <c r="M71">
         <v>0.0129569212441335</v>
@@ -10359,16 +10767,16 @@
         <v>77999.023775833892</v>
       </c>
       <c r="D72">
-        <v>0.50881738157623579</v>
+        <v>0.50884682191538844</v>
       </c>
       <c r="E72">
-        <v>0.49118261842376421</v>
+        <v>0.49115317808461162</v>
       </c>
       <c r="F72">
-        <v>0.39326405040186058</v>
+        <v>0.39323461006270788</v>
       </c>
       <c r="G72">
-        <v>0.23399181558571561</v>
+        <v>0.23402125592486819</v>
       </c>
       <c r="H72">
         <v>0.37009450348868023</v>
@@ -10418,10 +10826,10 @@
         <v>0.49633467777548801</v>
       </c>
       <c r="F73">
-        <v>0.3898195307209939</v>
+        <v>0.3898489710601466</v>
       </c>
       <c r="G73">
-        <v>0.22371713722142081</v>
+        <v>0.22368769688226811</v>
       </c>
       <c r="H73">
         <v>0.38372538051638361</v>
@@ -10465,31 +10873,31 @@
         <v>86873.884957274713</v>
       </c>
       <c r="D74">
-        <v>0.49032884858833581</v>
+        <v>0.49041716960579379</v>
       </c>
       <c r="E74">
-        <v>0.5096711514116643</v>
+        <v>0.50958283039420615</v>
       </c>
       <c r="F74">
-        <v>0.36411811464068072</v>
+        <v>0.36414755497983342</v>
       </c>
       <c r="G74">
         <v>0.20596461271233851</v>
       </c>
       <c r="H74">
-        <v>0.42682603703594668</v>
+        <v>0.42679659669679387</v>
       </c>
       <c r="I74">
         <v>0.0030912356110342001</v>
       </c>
       <c r="J74">
-        <v>0.544245640401819</v>
+        <v>0.54427581887356014</v>
       </c>
       <c r="K74">
         <v>0.012941664705394099</v>
       </c>
       <c r="L74">
-        <v>0.42899040532624833</v>
+        <v>0.42896022685450719</v>
       </c>
       <c r="M74">
         <v>0.01382228958416</v>
@@ -10518,31 +10926,31 @@
         <v>91430.231129662614</v>
       </c>
       <c r="D75">
-        <v>0.49462713810463099</v>
+        <v>0.49450937674802009</v>
       </c>
       <c r="E75">
-        <v>0.50537286189536901</v>
+        <v>0.5054906232519798</v>
       </c>
       <c r="F75">
-        <v>0.37665969911973379</v>
+        <v>0.37663025878058121</v>
       </c>
       <c r="G75">
         <v>0.2100568198545647</v>
       </c>
       <c r="H75">
-        <v>0.41004504371890371</v>
+        <v>0.41007448405805641</v>
       </c>
       <c r="I75">
         <v>0.0032384373067978001</v>
       </c>
       <c r="J75">
-        <v>0.56102893321524605</v>
+        <v>0.56100025866143777</v>
       </c>
       <c r="K75">
         <v>0.0135506131524534</v>
       </c>
       <c r="L75">
-        <v>0.41185041678026763</v>
+        <v>0.4118790913340758</v>
       </c>
       <c r="M75">
         <v>0.0135700368655397</v>
@@ -10571,10 +10979,10 @@
         <v>96496.391682782181</v>
       </c>
       <c r="D76">
-        <v>0.49291959843377398</v>
+        <v>0.49294903877292667</v>
       </c>
       <c r="E76">
-        <v>0.50708040156622602</v>
+        <v>0.50705096122707327</v>
       </c>
       <c r="F76">
         <v>0.39971148467630352</v>
@@ -10677,31 +11085,31 @@
         <v>107904.83909658639</v>
       </c>
       <c r="D78">
-        <v>0.48611888008949861</v>
+        <v>0.48608943975034591</v>
       </c>
       <c r="E78">
-        <v>0.51388111991050134</v>
+        <v>0.51391056024965409</v>
       </c>
       <c r="F78">
-        <v>0.38519739747401888</v>
+        <v>0.38525627815232433</v>
       </c>
       <c r="G78">
         <v>0.21953660906173639</v>
       </c>
       <c r="H78">
-        <v>0.39226307887066858</v>
+        <v>0.39220419819236318</v>
       </c>
       <c r="I78">
         <v>0.0030029145935760999</v>
       </c>
       <c r="J78">
-        <v>0.58429762819629905</v>
+        <v>0.58435806030866366</v>
       </c>
       <c r="K78">
         <v>0.015400554262603</v>
       </c>
       <c r="L78">
-        <v>0.38520602707911461</v>
+        <v>0.38514559496674988</v>
       </c>
       <c r="M78">
         <v>0.0150957904767974</v>
@@ -10730,31 +11138,31 @@
         <v>113851.9065736137</v>
       </c>
       <c r="D79">
-        <v>0.50260547001501454</v>
+        <v>0.5026349103541673</v>
       </c>
       <c r="E79">
-        <v>0.49739452998498551</v>
+        <v>0.4973650896458327</v>
       </c>
       <c r="F79">
-        <v>0.38993729207760469</v>
+        <v>0.3898784113992993</v>
       </c>
       <c r="G79">
         <v>0.22757382165042539</v>
       </c>
       <c r="H79">
-        <v>0.37907380693025577</v>
+        <v>0.37913268760856123</v>
       </c>
       <c r="I79">
         <v>0.0034150793417140001</v>
       </c>
       <c r="J79">
-        <v>0.59850356360851231</v>
+        <v>0.59844628817451018</v>
       </c>
       <c r="K79">
         <v>0.017500885049680101</v>
       </c>
       <c r="L79">
-        <v>0.36743691969540082</v>
+        <v>0.36749419512940279</v>
       </c>
       <c r="M79">
         <v>0.016558631657269202</v>
@@ -10783,10 +11191,10 @@
         <v>120479.1408747829</v>
       </c>
       <c r="D80">
-        <v>0.52624606235463833</v>
+        <v>0.52621662201548558</v>
       </c>
       <c r="E80">
-        <v>0.47375393764536172</v>
+        <v>0.47378337798451442</v>
       </c>
       <c r="F80">
         <v>0.40371537080107162</v>
@@ -10836,10 +11244,10 @@
         <v>127803.4798552179</v>
       </c>
       <c r="D81">
-        <v>0.52760031795566287</v>
+        <v>0.52762975829481551</v>
       </c>
       <c r="E81">
-        <v>0.47239968204433708</v>
+        <v>0.47237024170518449</v>
       </c>
       <c r="F81">
         <v>0.41131097830246999</v>
@@ -11048,10 +11456,10 @@
         <v>160156.9112185172</v>
       </c>
       <c r="D85">
-        <v>0.53401831189095295</v>
+        <v>0.5339888715518003</v>
       </c>
       <c r="E85">
-        <v>0.46598168810904711</v>
+        <v>0.4660111284481997</v>
       </c>
       <c r="F85">
         <v>0.39635528601289488</v>
@@ -11066,13 +11474,13 @@
         <v>0.0032384373067978001</v>
       </c>
       <c r="J85">
-        <v>0.68749616514364309</v>
+        <v>0.68748963818133879</v>
       </c>
       <c r="K85">
         <v>0.0212683362637285</v>
       </c>
       <c r="L85">
-        <v>0.27471284492232712</v>
+        <v>0.27471937188463141</v>
       </c>
       <c r="M85">
         <v>0.016522653718699098</v>
@@ -11101,10 +11509,10 @@
         <v>169271.02293540421</v>
       </c>
       <c r="D86">
-        <v>0.53972973768657817</v>
+        <v>0.53975917802573081</v>
       </c>
       <c r="E86">
-        <v>0.46027026231342177</v>
+        <v>0.46024082197426919</v>
       </c>
       <c r="F86">
         <v>0.38487355374333909</v>
@@ -11119,13 +11527,13 @@
         <v>0.0033267583242558999</v>
       </c>
       <c r="J86">
-        <v>0.68870714676928524</v>
+        <v>0.68871332229835203</v>
       </c>
       <c r="K86">
         <v>0.023387221038441101</v>
       </c>
       <c r="L86">
-        <v>0.27143515929508538</v>
+        <v>0.27142898376601871</v>
       </c>
       <c r="M86">
         <v>0.0164704729617762</v>
@@ -13380,55 +13788,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="N1" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="O1" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
@@ -15761,16 +16169,16 @@
         <v>11586.78578704081</v>
       </c>
       <c r="D53">
-        <v>0.37513919006036461</v>
+        <v>0.37510988688976149</v>
       </c>
       <c r="E53">
-        <v>0.62486080993963544</v>
+        <v>0.62489011311023845</v>
       </c>
       <c r="F53">
-        <v>0.51529625505479693</v>
+        <v>0.51532555822539994</v>
       </c>
       <c r="G53">
-        <v>0.30478227744241931</v>
+        <v>0.30475297427181619</v>
       </c>
       <c r="H53">
         <v>0.17435386508820261</v>
@@ -15814,31 +16222,31 @@
         <v>16981.479565271591</v>
       </c>
       <c r="D54">
-        <v>0.41949189791074509</v>
+        <v>0.41955050253464998</v>
       </c>
       <c r="E54">
-        <v>0.58050810208925485</v>
+        <v>0.58044949746535002</v>
       </c>
       <c r="F54">
-        <v>0.54666393178421779</v>
+        <v>0.54657602484836054</v>
       </c>
       <c r="G54">
-        <v>0.29255428253289179</v>
+        <v>0.29258358484484431</v>
       </c>
       <c r="H54">
-        <v>0.15307527763940579</v>
+        <v>0.15313388226331059</v>
       </c>
       <c r="I54">
         <v>0.0077065080434846004</v>
       </c>
       <c r="J54">
-        <v>0.75794921812031157</v>
+        <v>0.75788004100993922</v>
       </c>
       <c r="K54">
         <v>0.022328575302986702</v>
       </c>
       <c r="L54">
-        <v>0.18422370594582499</v>
+        <v>0.18429288305619729</v>
       </c>
       <c r="M54">
         <v>0.035498500643620298</v>
@@ -15867,31 +16275,31 @@
         <v>23147.540109687721</v>
       </c>
       <c r="D55">
-        <v>0.41446404500966999</v>
+        <v>0.41443474183906698</v>
       </c>
       <c r="E55">
-        <v>0.58553595499032995</v>
+        <v>0.58556525816093297</v>
       </c>
       <c r="F55">
-        <v>0.53824063763699237</v>
+        <v>0.53829924397819839</v>
       </c>
       <c r="G55">
         <v>0.30106077477583082</v>
       </c>
       <c r="H55">
-        <v>0.1541639805426947</v>
+        <v>0.15410537420148859</v>
       </c>
       <c r="I55">
         <v>0.0065346070444821996</v>
       </c>
       <c r="J55">
-        <v>0.73751736044156913</v>
+        <v>0.73756811158419211</v>
       </c>
       <c r="K55">
         <v>0.021441286925164699</v>
       </c>
       <c r="L55">
-        <v>0.20941033312733459</v>
+        <v>0.20935958198471169</v>
       </c>
       <c r="M55">
         <v>0.0316310195210419</v>
@@ -16026,16 +16434,16 @@
         <v>41391.710907510038</v>
       </c>
       <c r="D58">
-        <v>0.39052335462697058</v>
+        <v>0.39049405145636762</v>
       </c>
       <c r="E58">
-        <v>0.60947664537302937</v>
+        <v>0.60950594854363249</v>
       </c>
       <c r="F58">
-        <v>0.48323858641505008</v>
+        <v>0.48326788958565309</v>
       </c>
       <c r="G58">
-        <v>0.30683349938463339</v>
+        <v>0.30680419621403038</v>
       </c>
       <c r="H58">
         <v>0.20465334349176581</v>
@@ -16079,31 +16487,31 @@
         <v>47387.227999728937</v>
       </c>
       <c r="D59">
-        <v>0.41355564672097522</v>
+        <v>0.41399519428002107</v>
       </c>
       <c r="E59">
-        <v>0.58644435327902478</v>
+        <v>0.58600480571997893</v>
       </c>
       <c r="F59">
-        <v>0.45097579558108192</v>
+        <v>0.45094649241047879</v>
       </c>
       <c r="G59">
         <v>0.27550841000996312</v>
       </c>
       <c r="H59">
-        <v>0.26885659028306857</v>
+        <v>0.26891519662427482</v>
       </c>
       <c r="I59">
-        <v>0.0046592041258864004</v>
+        <v>0.0046299009552834003</v>
       </c>
       <c r="J59">
-        <v>0.66079469220543641</v>
+        <v>0.66082566547125343</v>
       </c>
       <c r="K59">
         <v>0.017134520725197999</v>
       </c>
       <c r="L59">
-        <v>0.29877988792937188</v>
+        <v>0.29874891466355491</v>
       </c>
       <c r="M59">
         <v>0.023290899146318999</v>
@@ -16132,31 +16540,31 @@
         <v>50717.264906864431</v>
       </c>
       <c r="D60">
-        <v>0.33011984645588538</v>
+        <v>0.32973891640050401</v>
       </c>
       <c r="E60">
-        <v>0.66988015354411456</v>
+        <v>0.67026108359949599</v>
       </c>
       <c r="F60">
         <v>0.063966946992117704</v>
       </c>
       <c r="G60">
-        <v>0.041579980660474102</v>
+        <v>0.041609282972426498</v>
       </c>
       <c r="H60">
-        <v>0.89342749142907374</v>
+        <v>0.8933688868051689</v>
       </c>
       <c r="I60">
-        <v>0.0010255809183344999</v>
+        <v>0.0010548832302869</v>
       </c>
       <c r="J60">
-        <v>0.092038079372628701</v>
+        <v>0.092009140623589905</v>
       </c>
       <c r="K60">
         <v>0.0020710240396624</v>
       </c>
       <c r="L60">
-        <v>0.90316288398180555</v>
+        <v>0.90319182273084431</v>
       </c>
       <c r="M60">
         <v>0.0027280126084088</v>
@@ -16185,31 +16593,31 @@
         <v>52988.113672493113</v>
       </c>
       <c r="D61">
-        <v>0.43395065346070438</v>
+        <v>0.4338920471194983</v>
       </c>
       <c r="E61">
-        <v>0.56604934653929551</v>
+        <v>0.56610795288050175</v>
       </c>
       <c r="F61">
-        <v>0.32922112172537071</v>
+        <v>0.32925042489597373</v>
       </c>
       <c r="G61">
         <v>0.20468264666236891</v>
       </c>
       <c r="H61">
-        <v>0.46199378772783217</v>
+        <v>0.4619644845572291</v>
       </c>
       <c r="I61">
         <v>0.0041024438844282996</v>
       </c>
       <c r="J61">
-        <v>0.48435414592008952</v>
+        <v>0.48438464575020401</v>
       </c>
       <c r="K61">
         <v>0.011762316505534699</v>
       </c>
       <c r="L61">
-        <v>0.48719817046712099</v>
+        <v>0.48716767063700639</v>
       </c>
       <c r="M61">
         <v>0.016685367110347502</v>
@@ -16238,31 +16646,31 @@
         <v>56756.282763348507</v>
       </c>
       <c r="D62">
-        <v>0.42228799156068692</v>
+        <v>0.4206177108363125</v>
       </c>
       <c r="E62">
-        <v>0.57771200843931314</v>
+        <v>0.5793822891636875</v>
       </c>
       <c r="F62">
         <v>0.23389790775361891</v>
       </c>
       <c r="G62">
-        <v>0.2137373263787142</v>
+        <v>0.213649416866905</v>
       </c>
       <c r="H62">
-        <v>0.55092891050811699</v>
+        <v>0.55095821367872</v>
       </c>
       <c r="I62">
-        <v>0.0014358553595499</v>
+        <v>0.001494461700756</v>
       </c>
       <c r="J62">
-        <v>0.25761883782496331</v>
+        <v>0.25759036294277549</v>
       </c>
       <c r="K62">
         <v>0.0059406208827013996</v>
       </c>
       <c r="L62">
-        <v>0.72867134095544506</v>
+        <v>0.72869981583763277</v>
       </c>
       <c r="M62">
         <v>0.0077692003398072999</v>
@@ -16291,31 +16699,31 @@
         <v>58227.43477488499</v>
       </c>
       <c r="D63">
-        <v>0.45784862425645378</v>
+        <v>0.45910862367040761</v>
       </c>
       <c r="E63">
-        <v>0.5421513757435461</v>
+        <v>0.54089137632959239</v>
       </c>
       <c r="F63">
-        <v>0.28511149529697888</v>
+        <v>0.28640079702288512</v>
       </c>
       <c r="G63">
-        <v>0.29372637501098842</v>
+        <v>0.28871567966712569</v>
       </c>
       <c r="H63">
-        <v>0.41993143259003141</v>
+        <v>0.42371143083189261</v>
       </c>
       <c r="I63">
-        <v>0.0012306971020013</v>
+        <v>0.0011720924780964999</v>
       </c>
       <c r="J63">
-        <v>0.1436137661419975</v>
+        <v>0.14358422501034909</v>
       </c>
       <c r="K63">
         <v>0.0040122108052455</v>
       </c>
       <c r="L63">
-        <v>0.84749240440764184</v>
+        <v>0.84752194553929028</v>
       </c>
       <c r="M63">
         <v>0.004881618645835</v>
@@ -16344,31 +16752,31 @@
         <v>59541.896274330793</v>
       </c>
       <c r="D64">
-        <v>0.46272636699290859</v>
+        <v>0.46316591455195449</v>
       </c>
       <c r="E64">
-        <v>0.5372736330070913</v>
+        <v>0.53683408544804556</v>
       </c>
       <c r="F64">
-        <v>0.37472894567192172</v>
+        <v>0.37338099982418099</v>
       </c>
       <c r="G64">
-        <v>0.30155892867608269</v>
+        <v>0.30668698353161811</v>
       </c>
       <c r="H64">
-        <v>0.32151438785676612</v>
+        <v>0.31773427884897149</v>
       </c>
       <c r="I64">
         <v>0.0021977377952294001</v>
       </c>
       <c r="J64">
-        <v>0.3531569802910649</v>
+        <v>0.35318587011198721</v>
       </c>
       <c r="K64">
         <v>0.0081702577887979994</v>
       </c>
       <c r="L64">
-        <v>0.62869241304123291</v>
+        <v>0.6286635232203106</v>
       </c>
       <c r="M64">
         <v>0.0099803488743813</v>
@@ -16397,22 +16805,22 @@
         <v>62748.627008581912</v>
       </c>
       <c r="D65">
-        <v>0.38813842412166322</v>
+        <v>0.38872447036071139</v>
       </c>
       <c r="E65">
-        <v>0.61186157587833678</v>
+        <v>0.61127552963928855</v>
       </c>
       <c r="F65">
-        <v>0.22741524306267771</v>
+        <v>0.22744454537462999</v>
       </c>
       <c r="G65">
-        <v>0.13739854074486479</v>
+        <v>0.13736923843291229</v>
       </c>
       <c r="H65">
-        <v>0.63307644973188382</v>
+        <v>0.63310575204383623</v>
       </c>
       <c r="I65">
-        <v>0.0021097664605737002</v>
+        <v>0.0020804641486212999</v>
       </c>
       <c r="J65">
         <v>0.34101298467444802</v>
@@ -16450,10 +16858,10 @@
         <v>65860.369521337285</v>
       </c>
       <c r="D66">
-        <v>0.49598546562738088</v>
+        <v>0.4953994022153197</v>
       </c>
       <c r="E66">
-        <v>0.50401453437261912</v>
+        <v>0.50460059778468036</v>
       </c>
       <c r="F66">
         <v>0.27996249194162809</v>
@@ -16462,10 +16870,10 @@
         <v>0.1649475473246205</v>
       </c>
       <c r="H66">
-        <v>0.55183730879681181</v>
+        <v>0.5518080056262088</v>
       </c>
       <c r="I66">
-        <v>0.0032526519369396002</v>
+        <v>0.0032819551075425999</v>
       </c>
       <c r="J66">
         <v>0.41838168496828182</v>
@@ -16668,10 +17076,10 @@
         <v>0.55872355388853068</v>
       </c>
       <c r="F70">
-        <v>0.34070796460176989</v>
+        <v>0.34067866143116687</v>
       </c>
       <c r="G70">
-        <v>0.1832327257809295</v>
+        <v>0.1832620289515326</v>
       </c>
       <c r="H70">
         <v>0.47353923694543748</v>
@@ -16724,22 +17132,22 @@
         <v>0.40510446274211043</v>
       </c>
       <c r="G71">
-        <v>0.2257450112813901</v>
+        <v>0.22571570896943771</v>
       </c>
       <c r="H71">
-        <v>0.36619099246930581</v>
+        <v>0.36622029478125823</v>
       </c>
       <c r="I71">
         <v>0.0029595335071937001</v>
       </c>
       <c r="J71">
-        <v>0.61306252120631566</v>
+        <v>0.61305646595435059</v>
       </c>
       <c r="K71">
         <v>0.0138587950574017</v>
       </c>
       <c r="L71">
-        <v>0.35761597510012688</v>
+        <v>0.35762203035209189</v>
       </c>
       <c r="M71">
         <v>0.015462708629445</v>
@@ -16768,31 +17176,31 @@
         <v>94036.703120192455</v>
       </c>
       <c r="D72">
-        <v>0.47855007911856062</v>
+        <v>0.47857938228916369</v>
       </c>
       <c r="E72">
-        <v>0.52144992088143938</v>
+        <v>0.52142061771083625</v>
       </c>
       <c r="F72">
         <v>0.39576862216491832</v>
       </c>
       <c r="G72">
-        <v>0.21531969759127939</v>
+        <v>0.2153490007618824</v>
       </c>
       <c r="H72">
-        <v>0.38554181562445061</v>
+        <v>0.38551251245384749</v>
       </c>
       <c r="I72">
         <v>0.0033698646193518001</v>
       </c>
       <c r="J72">
-        <v>0.59714965426452893</v>
+        <v>0.59715538204486351</v>
       </c>
       <c r="K72">
         <v>0.014428653242911999</v>
       </c>
       <c r="L72">
-        <v>0.37418082738248881</v>
+        <v>0.37417509960215428</v>
       </c>
       <c r="M72">
         <v>0.014240865096970499</v>
@@ -16821,16 +17229,16 @@
         <v>98895.088668418146</v>
       </c>
       <c r="D73">
-        <v>0.49241047881380767</v>
+        <v>0.49235187247260148</v>
       </c>
       <c r="E73">
-        <v>0.50758952118619227</v>
+        <v>0.50764812752739852</v>
       </c>
       <c r="F73">
-        <v>0.37874348004454078</v>
+        <v>0.3787727832151439</v>
       </c>
       <c r="G73">
-        <v>0.21115864736564499</v>
+        <v>0.2111293441950419</v>
       </c>
       <c r="H73">
         <v>0.40754849674734811</v>
@@ -16874,10 +17282,10 @@
         <v>103783.7596358821</v>
       </c>
       <c r="D74">
-        <v>0.50083511589064378</v>
+        <v>0.5008644182025962</v>
       </c>
       <c r="E74">
-        <v>0.49916488410935622</v>
+        <v>0.4991355817974038</v>
       </c>
       <c r="F74">
         <v>0.41492073724616868</v>
@@ -16927,31 +17335,31 @@
         <v>108966.8095202338</v>
       </c>
       <c r="D75">
-        <v>0.50237355681884777</v>
+        <v>0.50234425364824475</v>
       </c>
       <c r="E75">
-        <v>0.49762644318115218</v>
+        <v>0.49765574635175519</v>
       </c>
       <c r="F75">
-        <v>0.42718162105139779</v>
+        <v>0.42715231788079472</v>
       </c>
       <c r="G75">
         <v>0.22680654046767859</v>
       </c>
       <c r="H75">
-        <v>0.34287639922639629</v>
+        <v>0.34290570239699941</v>
       </c>
       <c r="I75">
         <v>0.0031354392545273001</v>
       </c>
       <c r="J75">
-        <v>0.6445431375314713</v>
+        <v>0.64451308106944971</v>
       </c>
       <c r="K75">
         <v>0.0136105947537051</v>
       </c>
       <c r="L75">
-        <v>0.32663948549235883</v>
+        <v>0.32666954195438042</v>
       </c>
       <c r="M75">
         <v>0.015206782215625599</v>
@@ -16980,31 +17388,31 @@
         <v>114738.6352274933</v>
       </c>
       <c r="D76">
-        <v>0.51180917775303292</v>
+        <v>0.51183848092363593</v>
       </c>
       <c r="E76">
-        <v>0.48819082224696708</v>
+        <v>0.48816151907636413</v>
       </c>
       <c r="F76">
-        <v>0.43169430932426889</v>
+        <v>0.43172361249487201</v>
       </c>
       <c r="G76">
         <v>0.22633768973802959</v>
       </c>
       <c r="H76">
-        <v>0.33862743948895269</v>
+        <v>0.33859813631834962</v>
       </c>
       <c r="I76">
         <v>0.0033405614487488</v>
       </c>
       <c r="J76">
-        <v>0.64904204953175226</v>
+        <v>0.649070594029998</v>
       </c>
       <c r="K76">
         <v>0.015752626961537199</v>
       </c>
       <c r="L76">
-        <v>0.31927432798689148</v>
+        <v>0.31924578348864591</v>
       </c>
       <c r="M76">
         <v>0.015930995523536499</v>
@@ -17033,31 +17441,31 @@
         <v>120723.5679410731</v>
       </c>
       <c r="D77">
-        <v>0.50068860433088169</v>
+        <v>0.50065930201892928</v>
       </c>
       <c r="E77">
-        <v>0.49931139566911831</v>
+        <v>0.49934069798107072</v>
       </c>
       <c r="F77">
-        <v>0.42878073079966011</v>
+        <v>0.4287514284877077</v>
       </c>
       <c r="G77">
         <v>0.21680780613590411</v>
       </c>
       <c r="H77">
-        <v>0.35206727810824268</v>
+        <v>0.35209658042019509</v>
       </c>
       <c r="I77">
         <v>0.0023441849561929998</v>
       </c>
       <c r="J77">
-        <v>0.63907157645247781</v>
+        <v>0.63901154635300617</v>
       </c>
       <c r="K77">
         <v>0.0143111055164652</v>
       </c>
       <c r="L77">
-        <v>0.33126716956595081</v>
+        <v>0.33132719966542229</v>
       </c>
       <c r="M77">
         <v>0.0153501484682951</v>
@@ -17086,31 +17494,31 @@
         <v>126815.16006307511</v>
       </c>
       <c r="D78">
-        <v>0.52572818378948605</v>
+        <v>0.52575748696008906</v>
       </c>
       <c r="E78">
-        <v>0.47427181621051401</v>
+        <v>0.47424251303991088</v>
       </c>
       <c r="F78">
-        <v>0.44186250952353051</v>
+        <v>0.44189181269413352</v>
       </c>
       <c r="G78">
         <v>0.23093828752271001</v>
       </c>
       <c r="H78">
-        <v>0.32377073199320172</v>
+        <v>0.3237414288225986</v>
       </c>
       <c r="I78">
         <v>0.0034284709605579</v>
       </c>
       <c r="J78">
-        <v>0.66566032524749019</v>
+        <v>0.66571747346344434</v>
       </c>
       <c r="K78">
         <v>0.015269684278758199</v>
       </c>
       <c r="L78">
-        <v>0.30374856834501152</v>
+        <v>0.30369142012905731</v>
       </c>
       <c r="M78">
         <v>0.0153214221295123</v>
@@ -17139,16 +17547,16 @@
         <v>133493.56480961741</v>
       </c>
       <c r="D79">
-        <v>0.53497230931520501</v>
+        <v>0.53494300700325259</v>
       </c>
       <c r="E79">
-        <v>0.46502769068479499</v>
+        <v>0.46505699299674741</v>
       </c>
       <c r="F79">
-        <v>0.44829607055996717</v>
+        <v>0.44826676824801481</v>
       </c>
       <c r="G79">
-        <v>0.2475459313739854</v>
+        <v>0.24757523368593781</v>
       </c>
       <c r="H79">
         <v>0.3003486975122337</v>
@@ -17192,16 +17600,16 @@
         <v>141037.9915643498</v>
       </c>
       <c r="D80">
-        <v>0.54278262908046648</v>
+        <v>0.54281193225106961</v>
       </c>
       <c r="E80">
-        <v>0.45721737091953352</v>
+        <v>0.45718806774893039</v>
       </c>
       <c r="F80">
-        <v>0.46911445818437553</v>
+        <v>0.46914376135497859</v>
       </c>
       <c r="G80">
-        <v>0.26205825470315891</v>
+        <v>0.26202895153255579</v>
       </c>
       <c r="H80">
         <v>0.26528160346949542</v>
@@ -17410,10 +17818,10 @@
         <v>0.4717517435386509</v>
       </c>
       <c r="F84">
-        <v>0.43682236417980419</v>
+        <v>0.43685166735040731</v>
       </c>
       <c r="G84">
-        <v>0.2807536775479107</v>
+        <v>0.28072437437730757</v>
       </c>
       <c r="H84">
         <v>0.27958155072378832</v>
@@ -17463,10 +17871,10 @@
         <v>0.45837606587159729</v>
       </c>
       <c r="F85">
-        <v>0.43469979781404761</v>
+        <v>0.43467049550209508</v>
       </c>
       <c r="G85">
-        <v>0.29190963166993877</v>
+        <v>0.29193893398189119</v>
       </c>
       <c r="H85">
         <v>0.2695812699622</v>
@@ -19789,55 +20197,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="O1" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="P1" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="Q1" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
@@ -22011,16 +22419,16 @@
         <v>1252.367804948949</v>
       </c>
       <c r="D50">
-        <v>0.30731066686122871</v>
+        <v>0.30733985116007589</v>
       </c>
       <c r="E50">
-        <v>0.69268933313877135</v>
+        <v>0.69266014883992411</v>
       </c>
       <c r="F50">
-        <v>0.43659711075441421</v>
+        <v>0.43662629505326128</v>
       </c>
       <c r="G50">
-        <v>0.2126951699985408</v>
+        <v>0.21266598569969361</v>
       </c>
       <c r="H50">
         <v>0.039427987742594497</v>
@@ -22064,16 +22472,16 @@
         <v>6409.225372920102</v>
       </c>
       <c r="D51">
-        <v>0.39942797104833061</v>
+        <v>0.39939878589773531</v>
       </c>
       <c r="E51">
-        <v>0.60057202895166939</v>
+        <v>0.60060121410226475</v>
       </c>
       <c r="F51">
-        <v>0.56438244221340184</v>
+        <v>0.56429488676161565</v>
       </c>
       <c r="G51">
-        <v>0.30037356992762082</v>
+        <v>0.30046112537940689</v>
       </c>
       <c r="H51">
         <v>0.12797688536072849</v>
@@ -22082,13 +22490,13 @@
         <v>0.0072671024982488997</v>
       </c>
       <c r="J51">
-        <v>0.74931210968315343</v>
+        <v>0.74922794975400142</v>
       </c>
       <c r="K51">
         <v>0.018111978095174799</v>
       </c>
       <c r="L51">
-        <v>0.17428683006678289</v>
+        <v>0.17437098999593481</v>
       </c>
       <c r="M51">
         <v>0.058289082148635298</v>
@@ -22123,10 +22531,10 @@
         <v>0.60825915657376339</v>
       </c>
       <c r="F52">
-        <v>0.55231285568364219</v>
+        <v>0.55237122428133667</v>
       </c>
       <c r="G52">
-        <v>0.29414854808113228</v>
+        <v>0.29409017948343791</v>
       </c>
       <c r="H52">
         <v>0.14682620750036479</v>
@@ -22135,13 +22543,13 @@
         <v>0.0067123887348606</v>
       </c>
       <c r="J52">
-        <v>0.75388662199903711</v>
+        <v>0.75393011231821117</v>
       </c>
       <c r="K52">
         <v>0.0189115135174646</v>
       </c>
       <c r="L52">
-        <v>0.1898881483373045</v>
+        <v>0.1898446580181305</v>
       </c>
       <c r="M52">
         <v>0.037313716155080202</v>
@@ -22276,31 +22684,31 @@
         <v>32978.852965227357</v>
       </c>
       <c r="D55">
-        <v>0.38926017802422302</v>
+        <v>0.38928936232307021</v>
       </c>
       <c r="E55">
-        <v>0.61073982197577703</v>
+        <v>0.61071063767692979</v>
       </c>
       <c r="F55">
         <v>0.47605428279585582</v>
       </c>
       <c r="G55">
-        <v>0.29601634320735443</v>
+        <v>0.29598715890850719</v>
       </c>
       <c r="H55">
-        <v>0.22209251422734569</v>
+        <v>0.2221216985261929</v>
       </c>
       <c r="I55">
         <v>0.0058368597694439996</v>
       </c>
       <c r="J55">
-        <v>0.68372284354452617</v>
+        <v>0.68369064324079598</v>
       </c>
       <c r="K55">
         <v>0.020786503034465199</v>
       </c>
       <c r="L55">
-        <v>0.26753795227219251</v>
+        <v>0.2675701525759227</v>
       </c>
       <c r="M55">
         <v>0.027952701154298001</v>
@@ -22329,31 +22737,31 @@
         <v>39905.45716508737</v>
       </c>
       <c r="D56">
-        <v>0.39360863855245881</v>
+        <v>0.39357945425361163</v>
       </c>
       <c r="E56">
-        <v>0.60639136144754124</v>
+        <v>0.60642054574638848</v>
       </c>
       <c r="F56">
-        <v>0.48337954180650811</v>
+        <v>0.48340872610535529</v>
       </c>
       <c r="G56">
         <v>0.30354589230993723</v>
       </c>
       <c r="H56">
-        <v>0.20700423172333279</v>
+        <v>0.20697504742448561</v>
       </c>
       <c r="I56">
         <v>0.0060703341602218004</v>
       </c>
       <c r="J56">
-        <v>0.70212062948234177</v>
+        <v>0.70214724060667399</v>
       </c>
       <c r="K56">
         <v>0.019641270842504801</v>
       </c>
       <c r="L56">
-        <v>0.25147657591007477</v>
+        <v>0.25144996478574261</v>
       </c>
       <c r="M56">
         <v>0.026761523748105101</v>
@@ -22388,10 +22796,10 @@
         <v>0.62132267102498251</v>
       </c>
       <c r="F57">
-        <v>0.47997898669157141</v>
+        <v>0.47992061639038058</v>
       </c>
       <c r="G57">
-        <v>0.31820569694139622</v>
+        <v>0.31826406724258699</v>
       </c>
       <c r="H57">
         <v>0.19734998832593981</v>
@@ -22435,31 +22843,31 @@
         <v>53651.710963036261</v>
       </c>
       <c r="D58">
-        <v>0.40221800671238872</v>
+        <v>0.40224719101123602</v>
       </c>
       <c r="E58">
-        <v>0.59778199328761128</v>
+        <v>0.59775280898876404</v>
       </c>
       <c r="F58">
-        <v>0.4878447395301328</v>
+        <v>0.48787392382897998</v>
       </c>
       <c r="G58">
-        <v>0.30083175251714578</v>
+        <v>0.30077338391945141</v>
       </c>
       <c r="H58">
-        <v>0.2065080986429301</v>
+        <v>0.20653728294177731</v>
       </c>
       <c r="I58">
         <v>0.0048154093097912999</v>
       </c>
       <c r="J58">
-        <v>0.7222434852559998</v>
+        <v>0.72223576104672116</v>
       </c>
       <c r="K58">
         <v>0.0194779984821985</v>
       </c>
       <c r="L58">
-        <v>0.23618002261303711</v>
+        <v>0.23618774682231569</v>
       </c>
       <c r="M58">
         <v>0.022098493670191201</v>
@@ -22488,31 +22896,31 @@
         <v>60477.473501340653</v>
       </c>
       <c r="D59">
-        <v>0.41432949073398512</v>
+        <v>0.41502991390631838</v>
       </c>
       <c r="E59">
-        <v>0.58567050926601483</v>
+        <v>0.58497008609368162</v>
       </c>
       <c r="F59">
-        <v>0.40356048445936088</v>
+        <v>0.40353130016051358</v>
       </c>
       <c r="G59">
-        <v>0.24538158470742741</v>
+        <v>0.2455275062016635</v>
       </c>
       <c r="H59">
-        <v>0.34714723478768422</v>
+        <v>0.34703049759229537</v>
       </c>
       <c r="I59">
         <v>0.0039106960455275001</v>
       </c>
       <c r="J59">
-        <v>0.59391679958859145</v>
+        <v>0.59392365200850317</v>
       </c>
       <c r="K59">
         <v>0.015664707672358301</v>
       </c>
       <c r="L59">
-        <v>0.37301781252185739</v>
+        <v>0.37301096010194568</v>
       </c>
       <c r="M59">
         <v>0.0174006802228256</v>
@@ -22541,19 +22949,19 @@
         <v>62970</v>
       </c>
       <c r="D60">
-        <v>0.33524982488909638</v>
+        <v>0.33431590007004441</v>
       </c>
       <c r="E60">
-        <v>0.66475017511090351</v>
+        <v>0.66568409992995559</v>
       </c>
       <c r="F60">
-        <v>0.00090473966845670004</v>
+        <v>0.00093392481905210005</v>
       </c>
       <c r="G60">
-        <v>0.0107109502685034</v>
+        <v>0.0107401354190988</v>
       </c>
       <c r="H60">
-        <v>0.98832593976184913</v>
+        <v>0.98826756946065841</v>
       </c>
       <c r="I60">
         <v>5.8370301190800001e-05</v>
@@ -22594,19 +23002,19 @@
         <v>64466.161588902673</v>
       </c>
       <c r="D61">
-        <v>0.41170290383773528</v>
+        <v>0.41181964103312418</v>
       </c>
       <c r="E61">
-        <v>0.58829709616226467</v>
+        <v>0.58818035896687582</v>
       </c>
       <c r="F61">
         <v>0.22098351087115131</v>
       </c>
       <c r="G61">
-        <v>0.20618707135561071</v>
+        <v>0.2062454399533051</v>
       </c>
       <c r="H61">
-        <v>0.57137020283087703</v>
+        <v>0.57131183423318255</v>
       </c>
       <c r="I61">
         <v>0.0014592149423609999</v>
@@ -22647,31 +23055,31 @@
         <v>65780.135092409342</v>
       </c>
       <c r="D62">
-        <v>0.41672260323945709</v>
+        <v>0.41710199912447099</v>
       </c>
       <c r="E62">
-        <v>0.58327739676054291</v>
+        <v>0.5828980008755289</v>
       </c>
       <c r="F62">
-        <v>0.20288924558587479</v>
+        <v>0.20134247774697209</v>
       </c>
       <c r="G62">
-        <v>0.24333868378812201</v>
+        <v>0.2430468407996498</v>
       </c>
       <c r="H62">
-        <v>0.55228367138479495</v>
+        <v>0.55412228221216986</v>
       </c>
       <c r="I62">
         <v>0.0014883992412082</v>
       </c>
       <c r="J62">
-        <v>0.16108596885305429</v>
+        <v>0.1611155625941324</v>
       </c>
       <c r="K62">
         <v>0.0047080001390665</v>
       </c>
       <c r="L62">
-        <v>0.82920164734415602</v>
+        <v>0.82917205360307789</v>
       </c>
       <c r="M62">
         <v>0.0050043836644579004</v>
@@ -22700,31 +23108,31 @@
         <v>67026.972970446383</v>
       </c>
       <c r="D63">
-        <v>0.47831543310763491</v>
+        <v>0.47802358160168112</v>
       </c>
       <c r="E63">
-        <v>0.52168456689236509</v>
+        <v>0.52197641839831888</v>
       </c>
       <c r="F63">
-        <v>0.36236282979220169</v>
+        <v>0.3639096427737567</v>
       </c>
       <c r="G63">
-        <v>0.3299089423301424</v>
+        <v>0.32999649778192858</v>
       </c>
       <c r="H63">
-        <v>0.30626897034788703</v>
+        <v>0.30463460191454589</v>
       </c>
       <c r="I63">
         <v>0.0014592575297689</v>
       </c>
       <c r="J63">
-        <v>0.19479160505975249</v>
+        <v>0.19476256097475381</v>
       </c>
       <c r="K63">
         <v>0.0052362245539471003</v>
       </c>
       <c r="L63">
-        <v>0.79328401700774187</v>
+        <v>0.79331306109274069</v>
       </c>
       <c r="M63">
         <v>0.0066881533882655001</v>
@@ -22806,10 +23214,10 @@
         <v>75435.974640440312</v>
       </c>
       <c r="D65">
-        <v>0.44293010360426088</v>
+        <v>0.44313439369619151</v>
       </c>
       <c r="E65">
-        <v>0.55706989639573912</v>
+        <v>0.55686560630380855</v>
       </c>
       <c r="F65">
         <v>0.38680869692105652</v>
@@ -22824,13 +23232,13 @@
         <v>0.0042025390339996997</v>
       </c>
       <c r="J65">
-        <v>0.57969367493657831</v>
+        <v>0.5796633129801716</v>
       </c>
       <c r="K65">
         <v>0.0148035829851007</v>
       </c>
       <c r="L65">
-        <v>0.38835464979199341</v>
+        <v>0.38838501174840001</v>
       </c>
       <c r="M65">
         <v>0.0171480922929922</v>
@@ -22859,10 +23267,10 @@
         <v>79350.81212355716</v>
       </c>
       <c r="D66">
-        <v>0.51605183282745737</v>
+        <v>0.5158183516226944</v>
       </c>
       <c r="E66">
-        <v>0.48394816717254258</v>
+        <v>0.4841816483773056</v>
       </c>
       <c r="F66">
         <v>0.17651179080084051</v>
@@ -22877,13 +23285,13 @@
         <v>0.0017511090357226001</v>
       </c>
       <c r="J66">
-        <v>0.25642624109752998</v>
+        <v>0.25645510596428339</v>
       </c>
       <c r="K66">
         <v>0.0064479216284336</v>
       </c>
       <c r="L66">
-        <v>0.72793081664987269</v>
+        <v>0.72790195178311923</v>
       </c>
       <c r="M66">
         <v>0.0091950206040889004</v>
@@ -22912,31 +23320,31 @@
         <v>83794.566930997375</v>
       </c>
       <c r="D67">
-        <v>0.47374872318692551</v>
+        <v>0.47377790748577259</v>
       </c>
       <c r="E67">
-        <v>0.52625127681307449</v>
+        <v>0.52622209251422736</v>
       </c>
       <c r="F67">
-        <v>0.35712826499343348</v>
+        <v>0.35715744929228083</v>
       </c>
       <c r="G67">
         <v>0.22594484167517881</v>
       </c>
       <c r="H67">
-        <v>0.41310375018240192</v>
+        <v>0.41307456588355462</v>
       </c>
       <c r="I67">
         <v>0.0038231431489858</v>
       </c>
       <c r="J67">
-        <v>0.53566530054903394</v>
+        <v>0.53569543024122568</v>
       </c>
       <c r="K67">
         <v>0.013508636121076801</v>
       </c>
       <c r="L67">
-        <v>0.43498944016703872</v>
+        <v>0.43495931047484698</v>
       </c>
       <c r="M67">
         <v>0.015836623169902801</v>
@@ -22974,22 +23382,22 @@
         <v>0.3556106814533781</v>
       </c>
       <c r="G68">
-        <v>0.23814387859331679</v>
+        <v>0.2381146942944696</v>
       </c>
       <c r="H68">
-        <v>0.40294761418356922</v>
+        <v>0.40297679848241652</v>
       </c>
       <c r="I68">
         <v>0.0032978257697358999</v>
       </c>
       <c r="J68">
-        <v>0.55678845901554108</v>
+        <v>0.55676012899862304</v>
       </c>
       <c r="K68">
         <v>0.0135001783934212</v>
       </c>
       <c r="L68">
-        <v>0.41532577852478553</v>
+        <v>0.41535410854170363</v>
       </c>
       <c r="M68">
         <v>0.0143855840474435</v>
@@ -23024,10 +23432,10 @@
         <v>0.56382792435208962</v>
       </c>
       <c r="F69">
-        <v>0.33408241886528128</v>
+        <v>0.33405323371468598</v>
       </c>
       <c r="G69">
-        <v>0.2093742703712351</v>
+        <v>0.20940345552183051</v>
       </c>
       <c r="H69">
         <v>0.45385827690870878</v>
@@ -23230,16 +23638,16 @@
         <v>115783.8181063494</v>
       </c>
       <c r="D73">
-        <v>0.49090909090909091</v>
+        <v>0.49093827520793809</v>
       </c>
       <c r="E73">
-        <v>0.50909090909090904</v>
+        <v>0.50906172479206191</v>
       </c>
       <c r="F73">
-        <v>0.38937691521961187</v>
+        <v>0.38940609951845911</v>
       </c>
       <c r="G73">
-        <v>0.23364949657084491</v>
+        <v>0.2336203122719977</v>
       </c>
       <c r="H73">
         <v>0.37440536991098788</v>
@@ -23248,13 +23656,13 @@
         <v>0.0025682182985554002</v>
       </c>
       <c r="J73">
-        <v>0.60113661673691399</v>
+        <v>0.60119640905287464</v>
       </c>
       <c r="K73">
         <v>0.013027776252477899</v>
       </c>
       <c r="L73">
-        <v>0.37103394329274192</v>
+        <v>0.37097415097678133</v>
       </c>
       <c r="M73">
         <v>0.014801663704559299</v>
@@ -23289,10 +23697,10 @@
         <v>0.52216547497446375</v>
       </c>
       <c r="F74">
-        <v>0.3957099080694586</v>
+        <v>0.39565153947176418</v>
       </c>
       <c r="G74">
-        <v>0.2305851451918868</v>
+        <v>0.2306435137895812</v>
       </c>
       <c r="H74">
         <v>0.36991098788851601</v>
@@ -23301,13 +23709,13 @@
         <v>0.0037939588501386002</v>
       </c>
       <c r="J74">
-        <v>0.60677762612769837</v>
+        <v>0.60672063750932381</v>
       </c>
       <c r="K74">
         <v>0.0140098892578164</v>
       </c>
       <c r="L74">
-        <v>0.36390556928021128</v>
+        <v>0.36396255789858589</v>
       </c>
       <c r="M74">
         <v>0.0153069153359986</v>
@@ -23336,19 +23744,19 @@
         <v>127662.9322012991</v>
       </c>
       <c r="D75">
-        <v>0.4836855008171842</v>
+        <v>0.48365631566658879</v>
       </c>
       <c r="E75">
-        <v>0.5163144991828158</v>
+        <v>0.51634368433341116</v>
       </c>
       <c r="F75">
-        <v>0.41679313565258003</v>
+        <v>0.41682232080317527</v>
       </c>
       <c r="G75">
-        <v>0.23491127714219009</v>
+        <v>0.2348529068409993</v>
       </c>
       <c r="H75">
-        <v>0.34558136819985991</v>
+        <v>0.34561055335045532</v>
       </c>
       <c r="I75">
         <v>0.0027142190053701001</v>
@@ -23398,22 +23806,22 @@
         <v>0.41071063767692978</v>
       </c>
       <c r="G76">
-        <v>0.2328031519042755</v>
+        <v>0.23289070480081719</v>
       </c>
       <c r="H76">
-        <v>0.35348022763753101</v>
+        <v>0.35339267474098929</v>
       </c>
       <c r="I76">
         <v>0.0030059827812636999</v>
       </c>
       <c r="J76">
-        <v>0.62412197726221597</v>
+        <v>0.62415192163984501</v>
       </c>
       <c r="K76">
         <v>0.015693120468741498</v>
       </c>
       <c r="L76">
-        <v>0.34338538304652882</v>
+        <v>0.34335543866889973</v>
       </c>
       <c r="M76">
         <v>0.016799519252264802</v>
@@ -23442,31 +23850,31 @@
         <v>141753.01027515321</v>
       </c>
       <c r="D77">
-        <v>0.48647307748431351</v>
+        <v>0.48650226178316058</v>
       </c>
       <c r="E77">
-        <v>0.51352692251568655</v>
+        <v>0.51349773821683931</v>
       </c>
       <c r="F77">
-        <v>0.47147234787684228</v>
+        <v>0.47144316357799498</v>
       </c>
       <c r="G77">
-        <v>0.26440974755581498</v>
+        <v>0.26438056325696768</v>
       </c>
       <c r="H77">
-        <v>0.26134539617685693</v>
+        <v>0.26140376477455129</v>
       </c>
       <c r="I77">
         <v>0.0027725083904859</v>
       </c>
       <c r="J77">
-        <v>0.71887221604438889</v>
+        <v>0.7188438365377916</v>
       </c>
       <c r="K77">
         <v>0.0174002596293042</v>
       </c>
       <c r="L77">
-        <v>0.24478287738377391</v>
+        <v>0.2448112568903712</v>
       </c>
       <c r="M77">
         <v>0.018944646876036898</v>
@@ -23495,16 +23903,16 @@
         <v>149900.6232881085</v>
       </c>
       <c r="D78">
-        <v>0.53116974083586266</v>
+        <v>0.5311405556852673</v>
       </c>
       <c r="E78">
-        <v>0.46883025916413729</v>
+        <v>0.4688594443147327</v>
       </c>
       <c r="F78">
-        <v>0.44469413962176052</v>
+        <v>0.44472332477235582</v>
       </c>
       <c r="G78">
-        <v>0.25396918048097128</v>
+        <v>0.25393999533037592</v>
       </c>
       <c r="H78">
         <v>0.29800957272939532</v>
@@ -23660,10 +24068,10 @@
         <v>0.47942446883025908</v>
       </c>
       <c r="F81">
-        <v>0.42800023348120481</v>
+        <v>0.42797104833060939</v>
       </c>
       <c r="G81">
-        <v>0.2754202661685734</v>
+        <v>0.27544945131916881</v>
       </c>
       <c r="H81">
         <v>0.29316483773056268</v>
@@ -23713,10 +24121,10 @@
         <v>0.48066540201371671</v>
       </c>
       <c r="F82">
-        <v>0.4232598861812345</v>
+        <v>0.42328907048008169</v>
       </c>
       <c r="G82">
-        <v>0.27695899606011959</v>
+        <v>0.27692981176127252</v>
       </c>
       <c r="H82">
         <v>0.29680431927622941</v>
@@ -26198,55 +26606,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="Q1" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
@@ -28389,10 +28797,10 @@
         <v>0.61406313586419392</v>
       </c>
       <c r="F49">
-        <v>0.60842392884134644</v>
+        <v>0.60839486076390903</v>
       </c>
       <c r="G49">
-        <v>0.2280390674960758</v>
+        <v>0.22806813557351319</v>
       </c>
       <c r="H49">
         <v>0.085460147665833402</v>
@@ -28442,10 +28850,10 @@
         <v>0.61995290834568761</v>
       </c>
       <c r="F50">
-        <v>0.55806517252405452</v>
+        <v>0.55809424144646957</v>
       </c>
       <c r="G50">
-        <v>0.26130054358884919</v>
+        <v>0.26127147466643408</v>
       </c>
       <c r="H50">
         <v>0.14110054940263361</v>
@@ -28495,10 +28903,10 @@
         <v>0.61981861519679082</v>
       </c>
       <c r="F51">
-        <v>0.52886460089529674</v>
+        <v>0.52889366897273415</v>
       </c>
       <c r="G51">
-        <v>0.26085692692285328</v>
+        <v>0.26082785884541598</v>
       </c>
       <c r="H51">
         <v>0.178972152781815</v>
@@ -28542,16 +28950,16 @@
         <v>25144.441049882182</v>
       </c>
       <c r="D52">
-        <v>0.40387186791465612</v>
+        <v>0.40390093599209348</v>
       </c>
       <c r="E52">
-        <v>0.59612813208534388</v>
+        <v>0.59609906400790647</v>
       </c>
       <c r="F52">
-        <v>0.54011394686355441</v>
+        <v>0.54008487878611711</v>
       </c>
       <c r="G52">
-        <v>0.27443171908609959</v>
+        <v>0.274460787163537</v>
       </c>
       <c r="H52">
         <v>0.15467124004418351</v>
@@ -28595,10 +29003,10 @@
         <v>33107.206469402227</v>
       </c>
       <c r="D53">
-        <v>0.36978576204180108</v>
+        <v>0.36975669311938608</v>
       </c>
       <c r="E53">
-        <v>0.63021423795819886</v>
+        <v>0.63024330688061392</v>
       </c>
       <c r="F53">
         <v>0.48893927502107498</v>
@@ -28648,10 +29056,10 @@
         <v>40967.734998487547</v>
       </c>
       <c r="D54">
-        <v>0.40608104179989529</v>
+        <v>0.4061101098773327</v>
       </c>
       <c r="E54">
-        <v>0.59391895820010465</v>
+        <v>0.59388989012266724</v>
       </c>
       <c r="F54">
         <v>0.49953491076100232</v>
@@ -28701,10 +29109,10 @@
         <v>48931.39797217014</v>
       </c>
       <c r="D55">
-        <v>0.39022121449957847</v>
+        <v>0.39019214557716347</v>
       </c>
       <c r="E55">
-        <v>0.60977878550042153</v>
+        <v>0.60980785442283647</v>
       </c>
       <c r="F55">
         <v>0.49577047178861078</v>
@@ -28754,10 +29162,10 @@
         <v>56745.498353565927</v>
       </c>
       <c r="D56">
-        <v>0.38134410790070339</v>
+        <v>0.38131503982326609</v>
       </c>
       <c r="E56">
-        <v>0.61865589209929661</v>
+        <v>0.61868496017673391</v>
       </c>
       <c r="F56">
         <v>0.47584442764955531</v>
@@ -28807,19 +29215,19 @@
         <v>64543.331003618172</v>
       </c>
       <c r="D57">
-        <v>0.40806953286241682</v>
+        <v>0.40809860178483182</v>
       </c>
       <c r="E57">
-        <v>0.59193046713758313</v>
+        <v>0.59190139821516818</v>
       </c>
       <c r="F57">
-        <v>0.48966599808145111</v>
+        <v>0.48963692915903612</v>
       </c>
       <c r="G57">
-        <v>0.29019505246940502</v>
+        <v>0.29025319031423508</v>
       </c>
       <c r="H57">
-        <v>0.19955815237929131</v>
+        <v>0.19952908345687631</v>
       </c>
       <c r="I57">
         <v>0.020580797069852601</v>
@@ -28860,31 +29268,31 @@
         <v>71667.542447341359</v>
       </c>
       <c r="D58">
-        <v>0.41576071158653571</v>
+        <v>0.41686529852915533</v>
       </c>
       <c r="E58">
-        <v>0.5842392884134644</v>
+        <v>0.58313470147084479</v>
       </c>
       <c r="F58">
-        <v>0.33262601011569087</v>
+        <v>0.33338178012906228</v>
       </c>
       <c r="G58">
-        <v>0.24396837393174819</v>
+        <v>0.24402651008662291</v>
       </c>
       <c r="H58">
-        <v>0.41169118074530547</v>
+        <v>0.41087727457705953</v>
       </c>
       <c r="I58">
         <v>0.011714435207255401</v>
       </c>
       <c r="J58">
-        <v>0.41795178905021679</v>
+        <v>0.41792210346989711</v>
       </c>
       <c r="K58">
         <v>0.0120784241000819</v>
       </c>
       <c r="L58">
-        <v>0.55597917905879235</v>
+        <v>0.55600886463911203</v>
       </c>
       <c r="M58">
         <v>0.013990607784125799</v>
@@ -28913,31 +29321,31 @@
         <v>73608.357518276549</v>
       </c>
       <c r="D59">
-        <v>0.35593860822045231</v>
+        <v>0.35422359165164818</v>
       </c>
       <c r="E59">
-        <v>0.64406139177954769</v>
+        <v>0.64577640834835182</v>
       </c>
       <c r="F59">
-        <v>0.079268647171676102</v>
+        <v>0.078687285622928899</v>
       </c>
       <c r="G59">
-        <v>0.1126678681472007</v>
+        <v>0.1142084762513807</v>
       </c>
       <c r="H59">
-        <v>0.80637753618975638</v>
+        <v>0.8054182896343236</v>
       </c>
       <c r="I59">
         <v>0.0016859484913667999</v>
       </c>
       <c r="J59">
-        <v>0.049629057320875997</v>
+        <v>0.049657960188150503</v>
       </c>
       <c r="K59">
         <v>0.0010889579563044</v>
       </c>
       <c r="L59">
-        <v>0.94751515286298293</v>
+        <v>0.94748624999570852</v>
       </c>
       <c r="M59">
         <v>0.0017668318522802999</v>
@@ -28966,19 +29374,19 @@
         <v>73776</v>
       </c>
       <c r="D60">
-        <v>0.32600796488474171</v>
+        <v>0.32685096363477811</v>
       </c>
       <c r="E60">
-        <v>0.67399203511525829</v>
+        <v>0.67314903636522194</v>
       </c>
       <c r="F60">
-        <v>0.0024999273276939999</v>
+        <v>0.0023545827156187002</v>
       </c>
       <c r="G60">
-        <v>0.027470131682218499</v>
+        <v>0.025871340949390999</v>
       </c>
       <c r="H60">
-        <v>0.96982645853318217</v>
+        <v>0.97157059387808498</v>
       </c>
       <c r="I60">
         <v>0.0002034824569053</v>
@@ -29019,19 +29427,19 @@
         <v>74926.52425549386</v>
       </c>
       <c r="D61">
-        <v>0.48029184349747112</v>
+        <v>0.48008836695540957</v>
       </c>
       <c r="E61">
-        <v>0.519708156502529</v>
+        <v>0.51991163304459043</v>
       </c>
       <c r="F61">
-        <v>0.30376140922039419</v>
+        <v>0.30341259229114592</v>
       </c>
       <c r="G61">
-        <v>0.34582291727225162</v>
+        <v>0.34535782803325388</v>
       </c>
       <c r="H61">
-        <v>0.34733445729899431</v>
+        <v>0.34814836346724032</v>
       </c>
       <c r="I61">
         <v>0.0030812162083600002</v>
@@ -29072,31 +29480,31 @@
         <v>77484.503820065191</v>
       </c>
       <c r="D62">
-        <v>0.43123746402720847</v>
+        <v>0.43202232493241483</v>
       </c>
       <c r="E62">
-        <v>0.56876253597279147</v>
+        <v>0.56797767506758523</v>
       </c>
       <c r="F62">
-        <v>0.3156594285049853</v>
+        <v>0.31600825557396589</v>
       </c>
       <c r="G62">
-        <v>0.20043022005174271</v>
+        <v>0.20083718496555331</v>
       </c>
       <c r="H62">
-        <v>0.47251533385657402</v>
+        <v>0.47175954187378272</v>
       </c>
       <c r="I62">
         <v>0.0113950175866981</v>
       </c>
       <c r="J62">
-        <v>0.38188962672037441</v>
+        <v>0.38191950616996251</v>
       </c>
       <c r="K62">
         <v>0.0109102039371695</v>
       </c>
       <c r="L62">
-        <v>0.59445711748030605</v>
+        <v>0.59442723803071806</v>
       </c>
       <c r="M62">
         <v>0.012743051875456299</v>
@@ -29125,31 +29533,31 @@
         <v>82037.093601253204</v>
       </c>
       <c r="D63">
-        <v>0.39741875472356258</v>
+        <v>0.39657578047787923</v>
       </c>
       <c r="E63">
-        <v>0.60258124527643742</v>
+        <v>0.60342421952212089</v>
       </c>
       <c r="F63">
         <v>0.32003953258531481</v>
       </c>
       <c r="G63">
-        <v>0.1969362246381024</v>
+        <v>0.1969071565606651</v>
       </c>
       <c r="H63">
-        <v>0.46892622521946398</v>
+        <v>0.46895529329690128</v>
       </c>
       <c r="I63">
         <v>0.0140980175571188</v>
       </c>
       <c r="J63">
-        <v>0.47953278987265452</v>
+        <v>0.47950456938207059</v>
       </c>
       <c r="K63">
         <v>0.013167210794909</v>
       </c>
       <c r="L63">
-        <v>0.49100112102846349</v>
+        <v>0.49102934151904731</v>
       </c>
       <c r="M63">
         <v>0.016298878313288401</v>
@@ -29178,19 +29586,19 @@
         <v>88382.733891274969</v>
       </c>
       <c r="D64">
-        <v>0.46146914333885641</v>
+        <v>0.46114938519229087</v>
       </c>
       <c r="E64">
-        <v>0.53853085666114353</v>
+        <v>0.53885061480770902</v>
       </c>
       <c r="F64">
         <v>0.33926339350600271</v>
       </c>
       <c r="G64">
-        <v>0.2114182727246301</v>
+        <v>0.21144734164704521</v>
       </c>
       <c r="H64">
-        <v>0.43562687131188049</v>
+        <v>0.43559780238946538</v>
       </c>
       <c r="I64">
         <v>0.013691462457486699</v>
@@ -29231,10 +29639,10 @@
         <v>91771.875217783483</v>
       </c>
       <c r="D65">
-        <v>0.51688855299110514</v>
+        <v>0.51723736992035352</v>
       </c>
       <c r="E65">
-        <v>0.48311144700889491</v>
+        <v>0.48276263007964648</v>
       </c>
       <c r="F65">
         <v>0.14519504679960471</v>
@@ -29284,16 +29692,16 @@
         <v>96878.254772614964</v>
       </c>
       <c r="D66">
-        <v>0.44619498866344981</v>
+        <v>0.44616592058601251</v>
       </c>
       <c r="E66">
-        <v>0.55380501133655025</v>
+        <v>0.55383407941398755</v>
       </c>
       <c r="F66">
-        <v>0.34527062380094181</v>
+        <v>0.34524155572350451</v>
       </c>
       <c r="G66">
-        <v>0.20894134061973141</v>
+        <v>0.20897040869716879</v>
       </c>
       <c r="H66">
         <v>0.43311435381663849</v>
@@ -29337,31 +29745,31 @@
         <v>102911.3571173894</v>
       </c>
       <c r="D67">
-        <v>0.45222522601087178</v>
+        <v>0.45225429493328678</v>
       </c>
       <c r="E67">
-        <v>0.54777477398912822</v>
+        <v>0.54774570506671316</v>
       </c>
       <c r="F67">
-        <v>0.37754716432661839</v>
+        <v>0.3776053021714485</v>
       </c>
       <c r="G67">
-        <v>0.23903374901892391</v>
+        <v>0.2390046800965088</v>
       </c>
       <c r="H67">
-        <v>0.37013458911078168</v>
+        <v>0.37010552018836662</v>
       </c>
       <c r="I67">
         <v>0.0132844975436761</v>
       </c>
       <c r="J67">
-        <v>0.58666217437984214</v>
+        <v>0.58669212731883891</v>
       </c>
       <c r="K67">
         <v>0.0146169445167938</v>
       </c>
       <c r="L67">
-        <v>0.38206323537207371</v>
+        <v>0.38203328243307683</v>
       </c>
       <c r="M67">
         <v>0.016657645709721999</v>
@@ -29390,31 +29798,31 @@
         <v>108408.6023139552</v>
       </c>
       <c r="D68">
-        <v>0.43241671995814202</v>
+        <v>0.43244578803557931</v>
       </c>
       <c r="E68">
-        <v>0.5675832800418581</v>
+        <v>0.56755421196442069</v>
       </c>
       <c r="F68">
-        <v>0.32704493924771821</v>
+        <v>0.32698680309284339</v>
       </c>
       <c r="G68">
         <v>0.1988547177489681</v>
       </c>
       <c r="H68">
-        <v>0.46317074588686702</v>
+        <v>0.46322888204174179</v>
       </c>
       <c r="I68">
         <v>0.0109295971164467</v>
       </c>
       <c r="J68">
-        <v>0.50728969492866893</v>
+        <v>0.50723142020316814</v>
       </c>
       <c r="K68">
         <v>0.0118872263228318</v>
       </c>
       <c r="L68">
-        <v>0.46725873842773752</v>
+        <v>0.46731701315323831</v>
       </c>
       <c r="M68">
         <v>0.0135643403102671</v>
@@ -29452,22 +29860,22 @@
         <v>0.37949478212842652</v>
       </c>
       <c r="G69">
-        <v>0.2233946687596291</v>
+        <v>0.2234237376820441</v>
       </c>
       <c r="H69">
-        <v>0.38333187988721262</v>
+        <v>0.38330281096479751</v>
       </c>
       <c r="I69">
         <v>0.013778669224731799</v>
       </c>
       <c r="J69">
-        <v>0.58345767613066535</v>
+        <v>0.58348594031102907</v>
       </c>
       <c r="K69">
         <v>0.014320582595051401</v>
       </c>
       <c r="L69">
-        <v>0.38540856310290011</v>
+        <v>0.38538029892253639</v>
       </c>
       <c r="M69">
         <v>0.016813178147981101</v>
@@ -29496,31 +29904,31 @@
         <v>120765.5458258241</v>
       </c>
       <c r="D70">
-        <v>0.4656415324690425</v>
+        <v>0.46567060054647991</v>
       </c>
       <c r="E70">
-        <v>0.5343584675309575</v>
+        <v>0.53432939945352009</v>
       </c>
       <c r="F70">
-        <v>0.37204232312074881</v>
+        <v>0.37207139119818622</v>
       </c>
       <c r="G70">
         <v>0.220103482355677</v>
       </c>
       <c r="H70">
-        <v>0.3954421254578222</v>
+        <v>0.39541305738038479</v>
       </c>
       <c r="I70">
         <v>0.012412069065752001</v>
       </c>
       <c r="J70">
-        <v>0.57125831717558362</v>
+        <v>0.5712539133570842</v>
       </c>
       <c r="K70">
         <v>0.015051783639086699</v>
       </c>
       <c r="L70">
-        <v>0.39761470454108389</v>
+        <v>0.39761910835958331</v>
       </c>
       <c r="M70">
         <v>0.0160751946299077</v>
@@ -29549,31 +29957,31 @@
         <v>126842.3743934134</v>
       </c>
       <c r="D71">
-        <v>0.46053893782157501</v>
+        <v>0.46048079997674479</v>
       </c>
       <c r="E71">
-        <v>0.53946106217842504</v>
+        <v>0.53951920002325515</v>
       </c>
       <c r="F71">
-        <v>0.36498938984331852</v>
+        <v>0.36496032092090352</v>
       </c>
       <c r="G71">
-        <v>0.21403447574198431</v>
+        <v>0.2140054068195692</v>
       </c>
       <c r="H71">
-        <v>0.41056946019011081</v>
+        <v>0.41062759803494092</v>
       </c>
       <c r="I71">
         <v>0.0104066742245865</v>
       </c>
       <c r="J71">
-        <v>0.56411603720520909</v>
+        <v>0.56409046464089763</v>
       </c>
       <c r="K71">
         <v>0.013688800795690599</v>
       </c>
       <c r="L71">
-        <v>0.40780353663644392</v>
+        <v>0.40782910920075538</v>
       </c>
       <c r="M71">
         <v>0.0143916253535175</v>
@@ -29611,22 +30019,22 @@
         <v>0.3901808034416604</v>
       </c>
       <c r="G72">
-        <v>0.2319051217952445</v>
+        <v>0.2319341898726818</v>
       </c>
       <c r="H72">
-        <v>0.36628684378815191</v>
+        <v>0.36625777571071449</v>
       </c>
       <c r="I72">
         <v>0.0116272309749433</v>
       </c>
       <c r="J72">
-        <v>0.61026962870298129</v>
+        <v>0.6102979938515013</v>
       </c>
       <c r="K72">
         <v>0.014014751277438</v>
       </c>
       <c r="L72">
-        <v>0.36007163019256738</v>
+        <v>0.36004326504404749</v>
       </c>
       <c r="M72">
         <v>0.015643989762650402</v>
@@ -29661,10 +30069,10 @@
         <v>0.55941515028196043</v>
       </c>
       <c r="F73">
-        <v>0.44500319748851808</v>
+        <v>0.44503226556595549</v>
       </c>
       <c r="G73">
-        <v>0.25149700598802388</v>
+        <v>0.25146793791058658</v>
       </c>
       <c r="H73">
         <v>0.29134934015464209</v>
@@ -29761,16 +30169,16 @@
         <v>155505.02868655889</v>
       </c>
       <c r="D75">
-        <v>0.47442009185512468</v>
+        <v>0.47439102377768733</v>
       </c>
       <c r="E75">
-        <v>0.52557990814487532</v>
+        <v>0.52560897622231262</v>
       </c>
       <c r="F75">
-        <v>0.40811580722051038</v>
+        <v>0.40808673914307309</v>
       </c>
       <c r="G75">
-        <v>0.2310330794721237</v>
+        <v>0.23106214754956109</v>
       </c>
       <c r="H75">
         <v>0.34864252078367541</v>
@@ -29814,16 +30222,16 @@
         <v>163173.60307385691</v>
       </c>
       <c r="D76">
-        <v>0.47539315717566349</v>
+        <v>0.47542222609807849</v>
       </c>
       <c r="E76">
-        <v>0.52460684282433645</v>
+        <v>0.52457777390192151</v>
       </c>
       <c r="F76">
-        <v>0.41106363187116651</v>
+        <v>0.41115083863841168</v>
       </c>
       <c r="G76">
-        <v>0.23106886427720119</v>
+        <v>0.23098165750995611</v>
       </c>
       <c r="H76">
         <v>0.34746082962704572</v>
@@ -29873,10 +30281,10 @@
         <v>0.50662752165571767</v>
       </c>
       <c r="F77">
-        <v>0.4248008836695541</v>
+        <v>0.42474274751467939</v>
       </c>
       <c r="G77">
-        <v>0.23981163885820589</v>
+        <v>0.2398697750130806</v>
       </c>
       <c r="H77">
         <v>0.32501017382710312</v>
@@ -29979,13 +30387,13 @@
         <v>0.49255857217603632</v>
       </c>
       <c r="F79">
-        <v>0.43948026277542002</v>
+        <v>0.43945119469798272</v>
       </c>
       <c r="G79">
         <v>0.25568280913900349</v>
       </c>
       <c r="H79">
-        <v>0.29553514330562181</v>
+        <v>0.29556421138305911</v>
       </c>
       <c r="I79">
         <v>0.0093017847799547002</v>
@@ -30032,13 +30440,13 @@
         <v>0.49422981890061329</v>
       </c>
       <c r="F80">
-        <v>0.43754542019127352</v>
+        <v>0.43757448911368862</v>
       </c>
       <c r="G80">
         <v>0.26763756867532917</v>
       </c>
       <c r="H80">
-        <v>0.28464288828813122</v>
+        <v>0.28461381936571611</v>
       </c>
       <c r="I80">
         <v>0.010174122845266099</v>
@@ -32623,55 +33031,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="M1" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="Q1" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
@@ -34755,10 +35163,10 @@
         <v>2725.1213413555638</v>
       </c>
       <c r="D48">
-        <v>0.36453658395344118</v>
+        <v>0.36450762949879839</v>
       </c>
       <c r="E48">
-        <v>0.63546341604655876</v>
+        <v>0.63549237050120166</v>
       </c>
       <c r="F48">
         <v>0.57390624547586644</v>
@@ -34808,10 +35216,10 @@
         <v>9698.2058096491164</v>
       </c>
       <c r="D49">
-        <v>0.388771462489504</v>
+        <v>0.38880041694414691</v>
       </c>
       <c r="E49">
-        <v>0.611228537510496</v>
+        <v>0.6111995830558532</v>
       </c>
       <c r="F49">
         <v>0.56258505371051337</v>
@@ -34973,10 +35381,10 @@
         <v>0.61056258505371053</v>
       </c>
       <c r="F52">
-        <v>0.50319946723803455</v>
+        <v>0.50317051278339175</v>
       </c>
       <c r="G52">
-        <v>0.29067377015953899</v>
+        <v>0.2907027246141819</v>
       </c>
       <c r="H52">
         <v>0.17639053768422269</v>
@@ -35026,10 +35434,10 @@
         <v>0.59993630019978572</v>
       </c>
       <c r="F53">
-        <v>0.50589223151981932</v>
+        <v>0.50592118597446212</v>
       </c>
       <c r="G53">
-        <v>0.28027912094275698</v>
+        <v>0.28025016648811418</v>
       </c>
       <c r="H53">
         <v>0.18577178098850511</v>
@@ -35232,19 +35640,19 @@
         <v>79763.661707167877</v>
       </c>
       <c r="D57">
-        <v>0.41808547602501739</v>
+        <v>0.41843293954134808</v>
       </c>
       <c r="E57">
-        <v>0.58191452397498256</v>
+        <v>0.58156706045865181</v>
       </c>
       <c r="F57">
-        <v>0.37332059300440118</v>
+        <v>0.37355223534862181</v>
       </c>
       <c r="G57">
-        <v>0.24681491776696779</v>
+        <v>0.24745193421357431</v>
       </c>
       <c r="H57">
-        <v>0.36463400509613159</v>
+        <v>0.3637653463053046</v>
       </c>
       <c r="I57">
         <v>0.015230484132499399</v>
@@ -35285,22 +35693,22 @@
         <v>82964.586104888091</v>
       </c>
       <c r="D58">
-        <v>0.38380913776130637</v>
+        <v>0.38323006543517291</v>
       </c>
       <c r="E58">
-        <v>0.61619086223869357</v>
+        <v>0.6167699345648272</v>
       </c>
       <c r="F58">
-        <v>0.1735479761422202</v>
+        <v>0.17380855868898029</v>
       </c>
       <c r="G58">
-        <v>0.20004053506282929</v>
+        <v>0.19818750361920201</v>
       </c>
       <c r="H58">
-        <v>0.62311077653598934</v>
+        <v>0.62467427181654989</v>
       </c>
       <c r="I58">
-        <v>0.0033007122589610999</v>
+        <v>0.0033296658752678</v>
       </c>
       <c r="J58">
         <v>0.12746569187921569</v>
@@ -35338,31 +35746,31 @@
         <v>83874</v>
       </c>
       <c r="D59">
-        <v>0.32464674542506372</v>
+        <v>0.32206972434561038</v>
       </c>
       <c r="E59">
-        <v>0.67535325457493633</v>
+        <v>0.67793027565438968</v>
       </c>
       <c r="F59">
-        <v>0.0031561269400046002</v>
+        <v>0.0029244845957841002</v>
       </c>
       <c r="G59">
-        <v>0.032748436414176497</v>
+        <v>0.032574704656011103</v>
       </c>
       <c r="H59">
-        <v>0.9639217048876535</v>
+        <v>0.96432707899003933</v>
       </c>
       <c r="I59">
         <v>0.0001737317581654</v>
       </c>
       <c r="J59">
-        <v>8.6865879082700001e-05</v>
+        <v>2.8955293027600001e-05</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.99991313412091731</v>
+        <v>0.9999710447069724</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -35391,31 +35799,31 @@
         <v>84152.952449320655</v>
       </c>
       <c r="D60">
-        <v>0.41497524394128038</v>
+        <v>0.41830500622520772</v>
       </c>
       <c r="E60">
-        <v>0.58502475605871962</v>
+        <v>0.58169499377479228</v>
       </c>
       <c r="F60">
-        <v>0.1811390682456496</v>
+        <v>0.18139965833743521</v>
       </c>
       <c r="G60">
-        <v>0.20766134869849731</v>
+        <v>0.20919593479456811</v>
       </c>
       <c r="H60">
-        <v>0.60986767814228215</v>
+        <v>0.60810145640906854</v>
       </c>
       <c r="I60">
-        <v>0.001331904913571</v>
+        <v>0.0013029504589280999</v>
       </c>
       <c r="J60">
-        <v>0.040497237463786501</v>
+        <v>0.040583996623773398</v>
       </c>
       <c r="K60">
         <v>0.0013405105624715999</v>
       </c>
       <c r="L60">
-        <v>0.95664876969227253</v>
+        <v>0.95656201053228562</v>
       </c>
       <c r="M60">
         <v>0.0015134822770906001</v>
@@ -35444,31 +35852,31 @@
         <v>85958.45723291325</v>
       </c>
       <c r="D61">
-        <v>0.45391898543590931</v>
+        <v>0.45336885079769518</v>
       </c>
       <c r="E61">
-        <v>0.54608101456409064</v>
+        <v>0.54663114920230482</v>
       </c>
       <c r="F61">
-        <v>0.36876393433129689</v>
+        <v>0.36824275414772561</v>
       </c>
       <c r="G61">
-        <v>0.29267162752989551</v>
+        <v>0.29238208298346702</v>
       </c>
       <c r="H61">
-        <v>0.32886469583345401</v>
+        <v>0.32970437501809652</v>
       </c>
       <c r="I61">
-        <v>0.0096997423053536997</v>
+        <v>0.0096707878507108005</v>
       </c>
       <c r="J61">
-        <v>0.36964400534299507</v>
+        <v>0.36958550794119238</v>
       </c>
       <c r="K61">
         <v>0.010103332952111301</v>
       </c>
       <c r="L61">
-        <v>0.60859460017553213</v>
+        <v>0.60865309757733477</v>
       </c>
       <c r="M61">
         <v>0.011658061542660801</v>
@@ -35497,31 +35905,31 @@
         <v>91156.910094382474</v>
       </c>
       <c r="D62">
-        <v>0.39528621478414461</v>
+        <v>0.3953151692387874</v>
       </c>
       <c r="E62">
-        <v>0.6047137852158555</v>
+        <v>0.6046848307612126</v>
       </c>
       <c r="F62">
         <v>0.26533862234704808</v>
       </c>
       <c r="G62">
-        <v>0.18151547615600661</v>
+        <v>0.18166024842922079</v>
       </c>
       <c r="H62">
-        <v>0.5426933433708776</v>
+        <v>0.54251961664302051</v>
       </c>
       <c r="I62">
-        <v>0.0104525581260677</v>
+        <v>0.010481512580710501</v>
       </c>
       <c r="J62">
-        <v>0.39951313048668768</v>
+        <v>0.39954148114930799</v>
       </c>
       <c r="K62">
         <v>0.010263368132487899</v>
       </c>
       <c r="L62">
-        <v>0.57740811230280342</v>
+        <v>0.57737976164018301</v>
       </c>
       <c r="M62">
         <v>0.0128153891015934</v>
@@ -35603,10 +36011,10 @@
         <v>103429.239530024</v>
       </c>
       <c r="D64">
-        <v>0.52219358948374206</v>
+        <v>0.52222254393838496</v>
       </c>
       <c r="E64">
-        <v>0.47780641051625788</v>
+        <v>0.47777745606161498</v>
       </c>
       <c r="F64">
         <v>0.078292845354257706</v>
@@ -35656,10 +36064,10 @@
         <v>107356.7473565488</v>
       </c>
       <c r="D65">
-        <v>0.4723340185887599</v>
+        <v>0.47230506413411699</v>
       </c>
       <c r="E65">
-        <v>0.5276659814112401</v>
+        <v>0.5276949358658829</v>
       </c>
       <c r="F65">
         <v>0.35011726554130351</v>
@@ -35718,22 +36126,22 @@
         <v>0.35587920201522999</v>
       </c>
       <c r="G66">
-        <v>0.2325332252367027</v>
+        <v>0.23250427078205979</v>
       </c>
       <c r="H66">
-        <v>0.39841329588557201</v>
+        <v>0.39844225034021491</v>
       </c>
       <c r="I66">
         <v>0.0131742768624953</v>
       </c>
       <c r="J66">
-        <v>0.55461657167821821</v>
+        <v>0.55458669807475403</v>
       </c>
       <c r="K66">
         <v>0.014358411459260201</v>
       </c>
       <c r="L66">
-        <v>0.41418818477915859</v>
+        <v>0.41421805838262271</v>
       </c>
       <c r="M66">
         <v>0.016836832079407199</v>
@@ -35768,10 +36176,10 @@
         <v>0.57164779801372445</v>
       </c>
       <c r="F67">
-        <v>0.32547702464024092</v>
+        <v>0.32544807018559813</v>
       </c>
       <c r="G67">
-        <v>0.1998726003995715</v>
+        <v>0.19990155485421429</v>
       </c>
       <c r="H67">
         <v>0.46341604655876312</v>
@@ -35780,13 +36188,13 @@
         <v>0.0112343284014246</v>
       </c>
       <c r="J67">
-        <v>0.503338549357079</v>
+        <v>0.50333707888531487</v>
       </c>
       <c r="K67">
         <v>0.012107525445913699</v>
       </c>
       <c r="L67">
-        <v>0.47015963423905172</v>
+        <v>0.47016110471081579</v>
       </c>
       <c r="M67">
         <v>0.014394290949730699</v>
@@ -35815,10 +36223,10 @@
         <v>127589.3869795739</v>
       </c>
       <c r="D68">
-        <v>0.47011813759555249</v>
+        <v>0.47008918230252489</v>
       </c>
       <c r="E68">
-        <v>0.52988186240444746</v>
+        <v>0.52991081769747517</v>
       </c>
       <c r="F68">
         <v>0.37549223998146858</v>
@@ -35833,13 +36241,13 @@
         <v>0.0119874913134121</v>
       </c>
       <c r="J68">
-        <v>0.5758101165471593</v>
+        <v>0.57583826747262912</v>
       </c>
       <c r="K68">
         <v>0.0135843768747443</v>
       </c>
       <c r="L68">
-        <v>0.39471186879365289</v>
+        <v>0.39468371786818313</v>
       </c>
       <c r="M68">
         <v>0.015893637791027</v>
@@ -35868,19 +36276,19 @@
         <v>134784.87055322909</v>
       </c>
       <c r="D69">
-        <v>0.44659350841126899</v>
+        <v>0.4466224628659119</v>
       </c>
       <c r="E69">
-        <v>0.5534064915887309</v>
+        <v>0.5533775371340881</v>
       </c>
       <c r="F69">
-        <v>0.38445724874771992</v>
+        <v>0.38448620320236271</v>
       </c>
       <c r="G69">
         <v>0.22390479775313429</v>
       </c>
       <c r="H69">
-        <v>0.37962185482236438</v>
+        <v>0.37959290036772159</v>
       </c>
       <c r="I69">
         <v>0.012016098676781399</v>
@@ -36086,25 +36494,25 @@
         <v>0.53076410805802476</v>
       </c>
       <c r="F73">
-        <v>0.40793931146306861</v>
+        <v>0.40791035700842582</v>
       </c>
       <c r="G73">
         <v>0.250050670295625</v>
       </c>
       <c r="H73">
-        <v>0.33144164229666728</v>
+        <v>0.33147059675131019</v>
       </c>
       <c r="I73">
         <v>0.010568375944639099</v>
       </c>
       <c r="J73">
-        <v>0.64752395274666763</v>
+        <v>0.64751513641264169</v>
       </c>
       <c r="K73">
         <v>0.015518548820136599</v>
       </c>
       <c r="L73">
-        <v>0.31636047552097718</v>
+        <v>0.31636929185500312</v>
       </c>
       <c r="M73">
         <v>0.020597022940398502</v>
@@ -36139,25 +36547,25 @@
         <v>0.52167240930017078</v>
       </c>
       <c r="F74">
-        <v>0.40704172336914041</v>
+        <v>0.4070706778237832</v>
       </c>
       <c r="G74">
         <v>0.24611286446419781</v>
       </c>
       <c r="H74">
-        <v>0.33711671540666532</v>
+        <v>0.33708776095202247</v>
       </c>
       <c r="I74">
         <v>0.0097286967599965</v>
       </c>
       <c r="J74">
-        <v>0.64217483169564793</v>
+        <v>0.64218324223422552</v>
       </c>
       <c r="K74">
         <v>0.015992756017773599</v>
       </c>
       <c r="L74">
-        <v>0.32138102536560792</v>
+        <v>0.32137261482703028</v>
       </c>
       <c r="M74">
         <v>0.0204513867560558</v>
@@ -36186,10 +36594,10 @@
         <v>181126.62832885739</v>
       </c>
       <c r="D75">
-        <v>0.47412919477661641</v>
+        <v>0.47410024032197351</v>
       </c>
       <c r="E75">
-        <v>0.52587080522338359</v>
+        <v>0.52589975967802649</v>
       </c>
       <c r="F75">
         <v>0.40985030546949652</v>
@@ -36239,10 +36647,10 @@
         <v>190053.6160177853</v>
       </c>
       <c r="D76">
-        <v>0.48990937255696793</v>
+        <v>0.48993832701161072</v>
       </c>
       <c r="E76">
-        <v>0.51009062744303213</v>
+        <v>0.51006167298838934</v>
       </c>
       <c r="F76">
         <v>0.42328517242377739</v>
@@ -36292,16 +36700,16 @@
         <v>199532.21130870521</v>
       </c>
       <c r="D77">
-        <v>0.49795871094767929</v>
+        <v>0.49801661985696499</v>
       </c>
       <c r="E77">
-        <v>0.50204128905232071</v>
+        <v>0.50198338014303501</v>
       </c>
       <c r="F77">
-        <v>0.43440368300663063</v>
+        <v>0.43443263746127342</v>
       </c>
       <c r="G77">
-        <v>0.25801314532240788</v>
+        <v>0.25798419086776497</v>
       </c>
       <c r="H77">
         <v>0.29704375018096529</v>
@@ -36345,10 +36753,10 @@
         <v>209554.28942148999</v>
       </c>
       <c r="D78">
-        <v>0.50070938413874977</v>
+        <v>0.50068042968410686</v>
       </c>
       <c r="E78">
-        <v>0.49929061586125018</v>
+        <v>0.49931957031589308</v>
       </c>
       <c r="F78">
         <v>0.43651735819555842</v>
@@ -36404,10 +36812,10 @@
         <v>0.50102788313982105</v>
       </c>
       <c r="F79">
-        <v>0.43648840374091552</v>
+        <v>0.43643049483162982</v>
       </c>
       <c r="G79">
-        <v>0.27046356081883199</v>
+        <v>0.27052146972811769</v>
       </c>
       <c r="H79">
         <v>0.28407215450097001</v>
@@ -36451,16 +36859,16 @@
         <v>231029.4959996453</v>
       </c>
       <c r="D80">
-        <v>0.51117674310864025</v>
+        <v>0.51114778781561265</v>
       </c>
       <c r="E80">
-        <v>0.48882325689135969</v>
+        <v>0.48885221218438729</v>
       </c>
       <c r="F80">
-        <v>0.43667477414871442</v>
+        <v>0.43670372944174202</v>
       </c>
       <c r="G80">
-        <v>0.27533588139911969</v>
+        <v>0.2753069261060922</v>
       </c>
       <c r="H80">
         <v>0.27849200833912441</v>
@@ -36504,16 +36912,16 @@
         <v>242232.76384972999</v>
       </c>
       <c r="D81">
-        <v>0.51443379563945912</v>
+        <v>0.51446275009410203</v>
       </c>
       <c r="E81">
-        <v>0.48556620436054088</v>
+        <v>0.48553724990589803</v>
       </c>
       <c r="F81">
-        <v>0.43341923154877382</v>
+        <v>0.43344818600341661</v>
       </c>
       <c r="G81">
-        <v>0.28352201986275588</v>
+        <v>0.28349306540811298</v>
       </c>
       <c r="H81">
         <v>0.2746330022874019</v>
@@ -36557,16 +36965,16 @@
         <v>253790.46760222729</v>
       </c>
       <c r="D82">
-        <v>0.5213539102990995</v>
+        <v>0.52132495584445671</v>
       </c>
       <c r="E82">
-        <v>0.4786460897009005</v>
+        <v>0.47867504415554329</v>
       </c>
       <c r="F82">
-        <v>0.43614095028520139</v>
+        <v>0.43611199583055849</v>
       </c>
       <c r="G82">
-        <v>0.28027912094275698</v>
+        <v>0.28030807539739988</v>
       </c>
       <c r="H82">
         <v>0.27483568346990178</v>
@@ -36663,16 +37071,16 @@
         <v>277995.80132991431</v>
       </c>
       <c r="D84">
-        <v>0.54353302255552016</v>
+        <v>0.54350406810087737</v>
       </c>
       <c r="E84">
-        <v>0.45646697744447978</v>
+        <v>0.45649593189912258</v>
       </c>
       <c r="F84">
-        <v>0.43935489475055739</v>
+        <v>0.43932594029591449</v>
       </c>
       <c r="G84">
-        <v>0.28230593276775628</v>
+        <v>0.28233488722239919</v>
       </c>
       <c r="H84">
         <v>0.2713321944581174</v>
@@ -36681,13 +37089,13 @@
         <v>0.0070069780235688999</v>
       </c>
       <c r="J84">
-        <v>0.7139662871866993</v>
+        <v>0.71396093407293393</v>
       </c>
       <c r="K84">
         <v>0.022477865479997201</v>
       </c>
       <c r="L84">
-        <v>0.24404348653048491</v>
+        <v>0.24404883964425031</v>
       </c>
       <c r="M84">
         <v>0.0195123607962801</v>
@@ -36716,16 +37124,16 @@
         <v>290417.38914967998</v>
       </c>
       <c r="D85">
-        <v>0.54000057908909282</v>
+        <v>0.54002953354373573</v>
       </c>
       <c r="E85">
-        <v>0.45999942091090718</v>
+        <v>0.45997046645626433</v>
       </c>
       <c r="F85">
-        <v>0.41940527550163592</v>
+        <v>0.41943422995627883</v>
       </c>
       <c r="G85">
-        <v>0.29631988881489418</v>
+        <v>0.29629093436025128</v>
       </c>
       <c r="H85">
         <v>0.27674667747632969</v>
@@ -36734,13 +37142,13 @@
         <v>0.0075281582071402</v>
       </c>
       <c r="J85">
-        <v>0.70500907491943376</v>
+        <v>0.70501419907248519</v>
       </c>
       <c r="K85">
         <v>0.0253440245785682</v>
       </c>
       <c r="L85">
-        <v>0.24997497750467321</v>
+        <v>0.24996985335162161</v>
       </c>
       <c r="M85">
         <v>0.019671923035069299</v>
@@ -39048,55 +39456,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="M1" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="N1" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="O1" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="P1" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="Q1" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
@@ -41241,31 +41649,31 @@
         <v>17903.12523207091</v>
       </c>
       <c r="D49">
-        <v>0.39411595038938563</v>
+        <v>0.39423132391116239</v>
       </c>
       <c r="E49">
-        <v>0.60588404961061437</v>
+        <v>0.60576867608883767</v>
       </c>
       <c r="F49">
         <v>0.53452552639169315</v>
       </c>
       <c r="G49">
-        <v>0.26282088260744157</v>
+        <v>0.26284972598788581</v>
       </c>
       <c r="H49">
-        <v>0.16253244880299969</v>
+        <v>0.16250360542255551</v>
       </c>
       <c r="I49">
         <v>0.040121142197865597</v>
       </c>
       <c r="J49">
-        <v>0.73281320345757572</v>
+        <v>0.73284922077884518</v>
       </c>
       <c r="K49">
         <v>0.0278269339307637</v>
       </c>
       <c r="L49">
-        <v>0.1956655348801877</v>
+        <v>0.19562951755891819</v>
       </c>
       <c r="M49">
         <v>0.043694327728510701</v>
@@ -41294,31 +41702,31 @@
         <v>27073.935351568129</v>
       </c>
       <c r="D50">
-        <v>0.40751636814628939</v>
+        <v>0.40742984050070657</v>
       </c>
       <c r="E50">
-        <v>0.59248363185371056</v>
+        <v>0.59257015949929337</v>
       </c>
       <c r="F50">
         <v>0.5322315479795795</v>
       </c>
       <c r="G50">
-        <v>0.27351388768711599</v>
+        <v>0.27345620259006093</v>
       </c>
       <c r="H50">
-        <v>0.15973003374578179</v>
+        <v>0.15978771884283699</v>
       </c>
       <c r="I50">
         <v>0.034524530587522702</v>
       </c>
       <c r="J50">
-        <v>0.74845546747195024</v>
+        <v>0.74843165105935594</v>
       </c>
       <c r="K50">
         <v>0.023953342988457201</v>
       </c>
       <c r="L50">
-        <v>0.1888697522874776</v>
+        <v>0.1888935687000719</v>
       </c>
       <c r="M50">
         <v>0.038721437263059003</v>
@@ -41347,31 +41755,31 @@
         <v>37052.347962429238</v>
       </c>
       <c r="D51">
-        <v>0.40677819440438417</v>
+        <v>0.40674935102394</v>
       </c>
       <c r="E51">
-        <v>0.59322180559561577</v>
+        <v>0.59325064897606006</v>
       </c>
       <c r="F51">
-        <v>0.52307470435535042</v>
+        <v>0.52304586097490624</v>
       </c>
       <c r="G51">
-        <v>0.29841361407556971</v>
+        <v>0.29847130083645801</v>
       </c>
       <c r="H51">
-        <v>0.14727430054802421</v>
+        <v>0.14724545716758</v>
       </c>
       <c r="I51">
         <v>0.0312373810210557</v>
       </c>
       <c r="J51">
-        <v>0.74683359850110143</v>
+        <v>0.74680081877258453</v>
       </c>
       <c r="K51">
         <v>0.021030580003950399</v>
       </c>
       <c r="L51">
-        <v>0.19729803555858941</v>
+        <v>0.19733081528710639</v>
       </c>
       <c r="M51">
         <v>0.034837785915476698</v>
@@ -41406,10 +41814,10 @@
         <v>0.59957889879149717</v>
       </c>
       <c r="F52">
-        <v>0.49225577572034263</v>
+        <v>0.49228461826887021</v>
       </c>
       <c r="G52">
-        <v>0.27983040581465779</v>
+        <v>0.2798015632661302</v>
       </c>
       <c r="H52">
         <v>0.19820599348158399</v>
@@ -41418,13 +41826,13 @@
         <v>0.029707824983415499</v>
       </c>
       <c r="J52">
-        <v>0.71487146969999038</v>
+        <v>0.71486540003590793</v>
       </c>
       <c r="K52">
-        <v>0.0185113369527805</v>
+        <v>0.018543244413551999</v>
       </c>
       <c r="L52">
-        <v>0.23343318456289969</v>
+        <v>0.23340734676621061</v>
       </c>
       <c r="M52">
         <v>0.0331840087813308</v>
@@ -41453,16 +41861,16 @@
         <v>57124.262455361648</v>
       </c>
       <c r="D53">
-        <v>0.39225865997519538</v>
+        <v>0.39220097487814021</v>
       </c>
       <c r="E53">
-        <v>0.60774134002480462</v>
+        <v>0.60779902512185979</v>
       </c>
       <c r="F53">
-        <v>0.48709295953390441</v>
+        <v>0.487121802082432</v>
       </c>
       <c r="G53">
-        <v>0.29407862478728619</v>
+        <v>0.29404978223875861</v>
       </c>
       <c r="H53">
         <v>0.19200484554815259</v>
@@ -41471,10 +41879,10 @@
         <v>0.026823570130656699</v>
       </c>
       <c r="J53">
-        <v>0.71369761472347526</v>
+        <v>0.71372387049119135</v>
       </c>
       <c r="K53">
-        <v>0.0191494379460256</v>
+        <v>0.019123182178309502</v>
       </c>
       <c r="L53">
         <v>0.23721115090724759</v>
@@ -41506,10 +41914,10 @@
         <v>67149.697273399186</v>
       </c>
       <c r="D54">
-        <v>0.40389385635996539</v>
+        <v>0.40395154312085368</v>
       </c>
       <c r="E54">
-        <v>0.59610614364003456</v>
+        <v>0.5960484568791462</v>
       </c>
       <c r="F54">
         <v>0.4845976348428036</v>
@@ -41565,10 +41973,10 @@
         <v>0.59623316316229702</v>
       </c>
       <c r="F55">
-        <v>0.49188082258948401</v>
+        <v>0.49182313749242879</v>
       </c>
       <c r="G55">
-        <v>0.30160652995298659</v>
+        <v>0.30166421505004182</v>
       </c>
       <c r="H55">
         <v>0.1819099535634969</v>
@@ -41612,22 +42020,22 @@
         <v>87458.289297979165</v>
       </c>
       <c r="D56">
-        <v>0.42223824632246898</v>
+        <v>0.42125757138736658</v>
       </c>
       <c r="E56">
-        <v>0.57776175367753102</v>
+        <v>0.57874242861263347</v>
       </c>
       <c r="F56">
-        <v>0.47086818575137013</v>
+        <v>0.47034900490337472</v>
       </c>
       <c r="G56">
-        <v>0.29942313239111618</v>
+        <v>0.29974040957600229</v>
       </c>
       <c r="H56">
-        <v>0.20617248341505631</v>
+        <v>0.20640323045860981</v>
       </c>
       <c r="I56">
-        <v>0.023536198442457499</v>
+        <v>0.023507355062013301</v>
       </c>
       <c r="J56">
         <v>0.70419273548451722</v>
@@ -41665,22 +42073,22 @@
         <v>92698.433858402917</v>
       </c>
       <c r="D57">
-        <v>0.40333419860978909</v>
+        <v>0.40431484525972722</v>
       </c>
       <c r="E57">
-        <v>0.59666580139021086</v>
+        <v>0.59568515474027284</v>
       </c>
       <c r="F57">
-        <v>0.22540451674309939</v>
+        <v>0.2259525251651236</v>
       </c>
       <c r="G57">
-        <v>0.24565198580946609</v>
+        <v>0.2453058752271351</v>
       </c>
       <c r="H57">
-        <v>0.52314614519338931</v>
+        <v>0.52291540480516863</v>
       </c>
       <c r="I57">
-        <v>0.0057973522540452002</v>
+        <v>0.0058261948025727997</v>
       </c>
       <c r="J57">
         <v>0.17144129892970991</v>
@@ -41718,22 +42126,22 @@
         <v>94862.933943926662</v>
       </c>
       <c r="D58">
-        <v>0.47620421113354477</v>
+        <v>0.47608883761176812</v>
       </c>
       <c r="E58">
-        <v>0.52379578886645517</v>
+        <v>0.52391116238823188</v>
       </c>
       <c r="F58">
-        <v>0.3152581482549755</v>
+        <v>0.31517161811364292</v>
       </c>
       <c r="G58">
-        <v>0.34052494952408419</v>
+        <v>0.34040957600230748</v>
       </c>
       <c r="H58">
-        <v>0.34193827516584951</v>
+        <v>0.34216902220940287</v>
       </c>
       <c r="I58">
-        <v>0.0022786270550908998</v>
+        <v>0.0022497836746467</v>
       </c>
       <c r="J58">
         <v>0.060741683648839202</v>
@@ -41771,31 +42179,31 @@
         <v>95544</v>
       </c>
       <c r="D59">
-        <v>0.31501831501831501</v>
+        <v>0.31397998327132193</v>
       </c>
       <c r="E59">
-        <v>0.68498168498168499</v>
+        <v>0.68602001672867807</v>
       </c>
       <c r="F59">
-        <v>0.0031149952409795</v>
+        <v>0.0031438377895070999</v>
       </c>
       <c r="G59">
-        <v>0.037726053474085003</v>
+        <v>0.039139338351936802</v>
       </c>
       <c r="H59">
-        <v>0.95898589599377004</v>
+        <v>0.95748608347033548</v>
       </c>
       <c r="I59">
-        <v>0.0001730552911655</v>
+        <v>0.0002307403882207</v>
       </c>
       <c r="J59">
-        <v>2.8842548527599999e-05</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.99997115745147236</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -41824,31 +42232,31 @@
         <v>95828.757051755834</v>
       </c>
       <c r="D60">
-        <v>0.34574560138448218</v>
+        <v>0.34689933660224981</v>
       </c>
       <c r="E60">
-        <v>0.65425439861551782</v>
+        <v>0.65310066339775019</v>
       </c>
       <c r="F60">
-        <v>0.10083645803288151</v>
+        <v>0.1008653014133256</v>
       </c>
       <c r="G60">
-        <v>0.091173925584078497</v>
+        <v>0.089904816844534205</v>
       </c>
       <c r="H60">
-        <v>0.8035765791750793</v>
+        <v>0.80484568791462363</v>
       </c>
       <c r="I60">
-        <v>0.0044130372079608004</v>
+        <v>0.0043841938275166002</v>
       </c>
       <c r="J60">
-        <v>0.1495950939296197</v>
+        <v>0.149623851601387</v>
       </c>
       <c r="K60">
         <v>0.0028137715164827</v>
       </c>
       <c r="L60">
-        <v>0.84265618898079275</v>
+        <v>0.84262743130902551</v>
       </c>
       <c r="M60">
         <v>0.0049349455715649001</v>
@@ -41883,10 +42291,10 @@
         <v>0.60269389403247664</v>
       </c>
       <c r="F61">
-        <v>0.27215828790631941</v>
+        <v>0.27218713045484699</v>
       </c>
       <c r="G61">
-        <v>0.1875630930749041</v>
+        <v>0.18753425052637651</v>
       </c>
       <c r="H61">
         <v>0.52591502985203775</v>
@@ -41983,22 +42391,22 @@
         <v>116117.7107218569</v>
       </c>
       <c r="D63">
-        <v>0.47835366733004531</v>
+        <v>0.47939199907703839</v>
       </c>
       <c r="E63">
-        <v>0.52164633266995475</v>
+        <v>0.52060800092296156</v>
       </c>
       <c r="F63">
-        <v>0.22416428715641321</v>
+        <v>0.22413544460788559</v>
       </c>
       <c r="G63">
-        <v>0.15113495428456061</v>
+        <v>0.1511637968330882</v>
       </c>
       <c r="H63">
-        <v>0.61431744108909458</v>
+        <v>0.61428859854056705</v>
       </c>
       <c r="I63">
-        <v>0.0103833174699316</v>
+        <v>0.0104121600184592</v>
       </c>
       <c r="J63">
         <v>0.34325919164440388</v>
@@ -42036,31 +42444,31 @@
         <v>118701.5403351775</v>
       </c>
       <c r="D64">
-        <v>0.50702316056646768</v>
+        <v>0.50601367136800213</v>
       </c>
       <c r="E64">
-        <v>0.49297683943353232</v>
+        <v>0.49398632863199787</v>
       </c>
       <c r="F64">
-        <v>0.18767846326901441</v>
+        <v>0.187707305817542</v>
       </c>
       <c r="G64">
-        <v>0.1217443973349485</v>
+        <v>0.1216867122378933</v>
       </c>
       <c r="H64">
-        <v>0.68247238325978488</v>
+        <v>0.68253006835684005</v>
       </c>
       <c r="I64">
-        <v>0.0081047561362521999</v>
+        <v>0.0080759135877246004</v>
       </c>
       <c r="J64">
-        <v>0.2888822694196031</v>
+        <v>0.28886002231100932</v>
       </c>
       <c r="K64">
         <v>0.0060834251010650001</v>
       </c>
       <c r="L64">
-        <v>0.69546711664099192</v>
+        <v>0.69548936374958581</v>
       </c>
       <c r="M64">
         <v>0.0095671888407840994</v>
@@ -42089,31 +42497,31 @@
         <v>125613.5544901031</v>
       </c>
       <c r="D65">
-        <v>0.43940005768676088</v>
+        <v>0.4393712143063167</v>
       </c>
       <c r="E65">
-        <v>0.56059994231323906</v>
+        <v>0.56062878569368335</v>
       </c>
       <c r="F65">
         <v>0.35137006057109887</v>
       </c>
       <c r="G65">
-        <v>0.23651571964234211</v>
+        <v>0.23654456302278631</v>
       </c>
       <c r="H65">
-        <v>0.39630804730314401</v>
+        <v>0.39627920392269972</v>
       </c>
       <c r="I65">
         <v>0.0158061724834151</v>
       </c>
       <c r="J65">
-        <v>0.54683595191876999</v>
+        <v>0.5468569754638597</v>
       </c>
       <c r="K65">
         <v>0.0098978567960517003</v>
       </c>
       <c r="L65">
-        <v>0.42409726217629379</v>
+        <v>0.42407623863120408</v>
       </c>
       <c r="M65">
         <v>0.019168929123041301</v>
@@ -42151,22 +42559,22 @@
         <v>0.32995875515560558</v>
       </c>
       <c r="G66">
-        <v>0.21548268004960919</v>
+        <v>0.2155115225981368</v>
       </c>
       <c r="H66">
-        <v>0.44206974128233972</v>
+        <v>0.44204089873381208</v>
       </c>
       <c r="I66">
         <v>0.012488823512445599</v>
       </c>
       <c r="J66">
-        <v>0.51754360271343336</v>
+        <v>0.5175732163664023</v>
       </c>
       <c r="K66">
         <v>0.0095469443987944002</v>
       </c>
       <c r="L66">
-        <v>0.45683818540621901</v>
+        <v>0.45680857175325013</v>
       </c>
       <c r="M66">
         <v>0.016071267492165999</v>
@@ -42195,31 +42603,31 @@
         <v>140893.74430884051</v>
       </c>
       <c r="D67">
-        <v>0.4632535333141044</v>
+        <v>0.46328237669454858</v>
       </c>
       <c r="E67">
-        <v>0.53674646668589565</v>
+        <v>0.53671762330545136</v>
       </c>
       <c r="F67">
-        <v>0.37929045284107299</v>
+        <v>0.37934813960196129</v>
       </c>
       <c r="G67">
-        <v>0.24035188924141909</v>
+        <v>0.24026535910008651</v>
       </c>
       <c r="H67">
-        <v>0.36504182290164411</v>
+        <v>0.36507066628208829</v>
       </c>
       <c r="I67">
         <v>0.0153158350158639</v>
       </c>
       <c r="J67">
-        <v>0.59469916399573908</v>
+        <v>0.59467115867538844</v>
       </c>
       <c r="K67">
         <v>0.010813760037176301</v>
       </c>
       <c r="L67">
-        <v>0.37342726743522581</v>
+        <v>0.37345527275557627</v>
       </c>
       <c r="M67">
         <v>0.021059808516031699</v>
@@ -42248,16 +42656,16 @@
         <v>149076.47871600179</v>
       </c>
       <c r="D68">
-        <v>0.47151798332900702</v>
+        <v>0.47148914078047938</v>
       </c>
       <c r="E68">
-        <v>0.52848201667099304</v>
+        <v>0.52851085921952068</v>
       </c>
       <c r="F68">
-        <v>0.37789507080845658</v>
+        <v>0.37783738571140152</v>
       </c>
       <c r="G68">
-        <v>0.22422197225346829</v>
+        <v>0.22427965735052349</v>
       </c>
       <c r="H68">
         <v>0.38395200599925011</v>
@@ -42413,10 +42821,10 @@
         <v>0.54349581770983557</v>
       </c>
       <c r="F71">
-        <v>0.4007499278915489</v>
+        <v>0.40072108451110472</v>
       </c>
       <c r="G71">
-        <v>0.2346408999134699</v>
+        <v>0.23466974329391399</v>
       </c>
       <c r="H71">
         <v>0.35252379578886639</v>
@@ -42519,10 +42927,10 @@
         <v>0.51707528122295932</v>
       </c>
       <c r="F73">
-        <v>0.42740121142197868</v>
+        <v>0.42743005480242291</v>
       </c>
       <c r="G73">
-        <v>0.24413037207960769</v>
+        <v>0.24410152869916349</v>
       </c>
       <c r="H73">
         <v>0.31742140178828959</v>
@@ -42566,16 +42974,16 @@
         <v>197530.31194117561</v>
       </c>
       <c r="D74">
-        <v>0.48735254247065268</v>
+        <v>0.4873236999221251</v>
       </c>
       <c r="E74">
-        <v>0.51264745752934737</v>
+        <v>0.5126763000778749</v>
       </c>
       <c r="F74">
-        <v>0.4277638372126561</v>
+        <v>0.42779267976118368</v>
       </c>
       <c r="G74">
-        <v>0.24340226702431431</v>
+        <v>0.24337342447578669</v>
       </c>
       <c r="H74">
         <v>0.31882553142395659</v>
@@ -42625,10 +43033,10 @@
         <v>0.50545139890395152</v>
       </c>
       <c r="F75">
-        <v>0.43340063455436978</v>
+        <v>0.43334294779348143</v>
       </c>
       <c r="G75">
-        <v>0.25774444764926452</v>
+        <v>0.25780213441015293</v>
       </c>
       <c r="H75">
         <v>0.29627920392269969</v>
@@ -42672,16 +43080,16 @@
         <v>215921.0568026953</v>
       </c>
       <c r="D76">
-        <v>0.50497533962100893</v>
+        <v>0.50500418216953646</v>
       </c>
       <c r="E76">
-        <v>0.49502466037899112</v>
+        <v>0.49499581783046348</v>
       </c>
       <c r="F76">
-        <v>0.43716650803264978</v>
+        <v>0.43719535058117742</v>
       </c>
       <c r="G76">
-        <v>0.26474575293472929</v>
+        <v>0.26471691038620171</v>
       </c>
       <c r="H76">
         <v>0.2876467364656341</v>
@@ -42831,10 +43239,10 @@
         <v>247690.03656108491</v>
       </c>
       <c r="D79">
-        <v>0.50050474459923278</v>
+        <v>0.50047590205070525</v>
       </c>
       <c r="E79">
-        <v>0.49949525540076722</v>
+        <v>0.49952409794929481</v>
       </c>
       <c r="F79">
         <v>0.4346860488592772</v>
@@ -42884,10 +43292,10 @@
         <v>259273.19665281579</v>
       </c>
       <c r="D80">
-        <v>0.50908566483991924</v>
+        <v>0.50911450822036342</v>
       </c>
       <c r="E80">
-        <v>0.49091433516008082</v>
+        <v>0.49088549177963658</v>
       </c>
       <c r="F80">
         <v>0.4279492356504182</v>
@@ -42937,16 +43345,16 @@
         <v>271497.51418692857</v>
       </c>
       <c r="D81">
-        <v>0.51230134694701623</v>
+        <v>0.5122725043984887</v>
       </c>
       <c r="E81">
-        <v>0.48769865305298382</v>
+        <v>0.4877274956015113</v>
       </c>
       <c r="F81">
-        <v>0.42101468085720062</v>
+        <v>0.42104352340572809</v>
       </c>
       <c r="G81">
-        <v>0.29410746733581378</v>
+        <v>0.29407862478728619</v>
       </c>
       <c r="H81">
         <v>0.27544633843846439</v>
@@ -42990,16 +43398,16 @@
         <v>284084.76577101962</v>
       </c>
       <c r="D82">
-        <v>0.51693106432073843</v>
+        <v>0.51695990770118261</v>
       </c>
       <c r="E82">
-        <v>0.48306893567926162</v>
+        <v>0.48304009229881739</v>
       </c>
       <c r="F82">
-        <v>0.43167003172771851</v>
+        <v>0.43164118834727427</v>
       </c>
       <c r="G82">
-        <v>0.29564464955292757</v>
+        <v>0.29567349293337181</v>
       </c>
       <c r="H82">
         <v>0.26308047303143928</v>
@@ -43255,10 +43663,10 @@
         <v>354742.05142716528</v>
       </c>
       <c r="D87">
-        <v>0.56358339822906756</v>
+        <v>0.56355455568053991</v>
       </c>
       <c r="E87">
-        <v>0.43641660177093239</v>
+        <v>0.43644544431946009</v>
       </c>
       <c r="F87">
         <v>0.37694326670704631</v>
@@ -43308,10 +43716,10 @@
         <v>372207.21397011098</v>
       </c>
       <c r="D88">
-        <v>0.55385059128929914</v>
+        <v>0.5539082780501875</v>
       </c>
       <c r="E88">
-        <v>0.44614940871070091</v>
+        <v>0.4460917219498125</v>
       </c>
       <c r="F88">
         <v>0.37161811364291902</v>
@@ -43326,13 +43734,13 @@
         <v>0.0085376406114796993</v>
       </c>
       <c r="J88">
-        <v>0.70187471544303426</v>
+        <v>0.70187564915382195</v>
       </c>
       <c r="K88">
         <v>0.0182064079339147</v>
       </c>
       <c r="L88">
-        <v>0.26045451883643778</v>
+        <v>0.26045358512565009</v>
       </c>
       <c r="M88">
         <v>0.019464357770295201</v>
@@ -43361,10 +43769,10 @@
         <v>390663.20277393208</v>
       </c>
       <c r="D89">
-        <v>0.57581263880476474</v>
+        <v>0.57578379625623721</v>
       </c>
       <c r="E89">
-        <v>0.42418736119523531</v>
+        <v>0.42421620374376279</v>
       </c>
       <c r="F89">
         <v>0.34789882033976521</v>
@@ -43379,13 +43787,13 @@
         <v>0.0085950794612212004</v>
       </c>
       <c r="J89">
-        <v>0.67878839798609769</v>
+        <v>0.67878750841199709</v>
       </c>
       <c r="K89">
         <v>0.019147440727633299</v>
       </c>
       <c r="L89">
-        <v>0.28246555772679782</v>
+        <v>0.28246644730089832</v>
       </c>
       <c r="M89">
         <v>0.019598603758911599</v>
@@ -45481,55 +45889,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="M1" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="N1" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="P1" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="Q1" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
@@ -48045,31 +48453,31 @@
         <v>96445.306209234841</v>
       </c>
       <c r="D56">
-        <v>0.41726287963681291</v>
+        <v>0.41576875556704879</v>
       </c>
       <c r="E56">
-        <v>0.58273712036318703</v>
+        <v>0.58423124443295116</v>
       </c>
       <c r="F56">
-        <v>0.44930034767117782</v>
+        <v>0.45013360917162321</v>
       </c>
       <c r="G56">
-        <v>0.30023273855702087</v>
+        <v>0.30043387064333532</v>
       </c>
       <c r="H56">
-        <v>0.2253254029825015</v>
+        <v>0.2243484757061173</v>
       </c>
       <c r="I56">
-        <v>0.025141510789299801</v>
+        <v>0.025084044478924199</v>
       </c>
       <c r="J56">
-        <v>0.66516754861080285</v>
+        <v>0.66519776085629334</v>
       </c>
       <c r="K56">
         <v>0.0188298258066203</v>
       </c>
       <c r="L56">
-        <v>0.28824639955775638</v>
+        <v>0.28821618731226589</v>
       </c>
       <c r="M56">
         <v>0.027756226035620699</v>
@@ -48098,31 +48506,31 @@
         <v>101931.6249544297</v>
       </c>
       <c r="D57">
-        <v>0.41236135854261252</v>
+        <v>0.41310844204356068</v>
       </c>
       <c r="E57">
-        <v>0.58763864145738753</v>
+        <v>0.58689155795643932</v>
       </c>
       <c r="F57">
-        <v>0.23952646399632199</v>
+        <v>0.23955519797712779</v>
       </c>
       <c r="G57">
-        <v>0.27466812252169409</v>
+        <v>0.27236940405723808</v>
       </c>
       <c r="H57">
-        <v>0.47801850468363888</v>
+        <v>0.48023102120567779</v>
       </c>
       <c r="I57">
-        <v>0.0077869087983449001</v>
+        <v>0.0078443767599562994</v>
       </c>
       <c r="J57">
-        <v>0.16030909104931021</v>
+        <v>0.1602805041117939</v>
       </c>
       <c r="K57">
         <v>0.0044291298616023003</v>
       </c>
       <c r="L57">
-        <v>0.82767988074555998</v>
+        <v>0.82770846768307627</v>
       </c>
       <c r="M57">
         <v>0.0075818983485102</v>
@@ -48151,19 +48559,19 @@
         <v>104571.45129365769</v>
       </c>
       <c r="D58">
-        <v>0.4762369978736854</v>
+        <v>0.47698408137463372</v>
       </c>
       <c r="E58">
-        <v>0.52376300212631466</v>
+        <v>0.52301591862536634</v>
       </c>
       <c r="F58">
-        <v>0.37167404172174012</v>
+        <v>0.3708120222975691</v>
       </c>
       <c r="G58">
-        <v>0.35905982414803739</v>
+        <v>0.36115740474685359</v>
       </c>
       <c r="H58">
-        <v>0.26334693408424797</v>
+        <v>0.2621113729096029</v>
       </c>
       <c r="I58">
         <v>0.0059192000459744</v>
@@ -48204,22 +48612,22 @@
         <v>107701.7668500104</v>
       </c>
       <c r="D59">
-        <v>0.32360209183380267</v>
+        <v>0.3221941267743233</v>
       </c>
       <c r="E59">
-        <v>0.67639790816619727</v>
+        <v>0.67780587322567665</v>
       </c>
       <c r="F59">
-        <v>0.0172116545026148</v>
+        <v>0.017326590425837601</v>
       </c>
       <c r="G59">
-        <v>0.053933681972300397</v>
+        <v>0.0548244353772772</v>
       </c>
       <c r="H59">
-        <v>0.9279064421584966</v>
+        <v>0.92684328486868572</v>
       </c>
       <c r="I59">
-        <v>0.0009482213665881</v>
+        <v>0.0010056893281995001</v>
       </c>
       <c r="J59">
         <v>0.022413834415339302</v>
@@ -48257,31 +48665,31 @@
         <v>107732.3877112785</v>
       </c>
       <c r="D60">
-        <v>0.31761629744562248</v>
+        <v>0.31908168836019879</v>
       </c>
       <c r="E60">
-        <v>0.68238370255437752</v>
+        <v>0.68091831163980121</v>
       </c>
       <c r="F60">
-        <v>0.0223831278912737</v>
+        <v>0.0222107289601471</v>
       </c>
       <c r="G60">
-        <v>0.060253426428756099</v>
+        <v>0.059362698617935201</v>
       </c>
       <c r="H60">
-        <v>0.91630031893802255</v>
+        <v>0.9174209119903457</v>
       </c>
       <c r="I60">
-        <v>0.0010631267419474999</v>
+        <v>0.0010056604315719999</v>
       </c>
       <c r="J60">
-        <v>0.027690181650782301</v>
+        <v>0.027661322712537399</v>
       </c>
       <c r="K60">
         <v>0.00070689628418760004</v>
       </c>
       <c r="L60">
-        <v>0.9706016954655915</v>
+        <v>0.97063055440383639</v>
       </c>
       <c r="M60">
         <v>0.0010012266015191999</v>
@@ -48310,31 +48718,31 @@
         <v>111469.8275949927</v>
       </c>
       <c r="D61">
-        <v>0.38888569622435493</v>
+        <v>0.38882822826274349</v>
       </c>
       <c r="E61">
-        <v>0.61111430377564502</v>
+        <v>0.61117177173725645</v>
       </c>
       <c r="F61">
-        <v>0.27150738463306712</v>
+        <v>0.27156485259467839</v>
       </c>
       <c r="G61">
         <v>0.18823630825814611</v>
       </c>
       <c r="H61">
-        <v>0.52611918855238204</v>
+        <v>0.52606172059077061</v>
       </c>
       <c r="I61">
         <v>0.0141371185564048</v>
       </c>
       <c r="J61">
-        <v>0.42034127118915748</v>
+        <v>0.4203691633257669</v>
       </c>
       <c r="K61">
         <v>0.012938518754118101</v>
       </c>
       <c r="L61">
-        <v>0.54885611926277944</v>
+        <v>0.54882822712617008</v>
       </c>
       <c r="M61">
         <v>0.017864090790746998</v>
@@ -48416,16 +48824,16 @@
         <v>129307.8908301786</v>
       </c>
       <c r="D63">
-        <v>0.47054766967415668</v>
+        <v>0.46982932015401407</v>
       </c>
       <c r="E63">
-        <v>0.52945233032584338</v>
+        <v>0.53017067984598587</v>
       </c>
       <c r="F63">
-        <v>0.26742715935865757</v>
+        <v>0.26739842537785191</v>
       </c>
       <c r="G63">
-        <v>0.18596632377449571</v>
+        <v>0.1859950577553014</v>
       </c>
       <c r="H63">
         <v>0.53373369346589272</v>
@@ -48434,13 +48842,13 @@
         <v>0.012872823400953999</v>
       </c>
       <c r="J63">
-        <v>0.40572380397177232</v>
+        <v>0.40569448887796411</v>
       </c>
       <c r="K63">
         <v>0.0108598913297005</v>
       </c>
       <c r="L63">
-        <v>0.56783296219202406</v>
+        <v>0.56786227728583227</v>
       </c>
       <c r="M63">
         <v>0.0155833425015815</v>
@@ -48469,16 +48877,16 @@
         <v>132380.03432588291</v>
       </c>
       <c r="D64">
-        <v>0.50844779035687604</v>
+        <v>0.50913740589621281</v>
       </c>
       <c r="E64">
-        <v>0.49155220964312402</v>
+        <v>0.49086259410378719</v>
       </c>
       <c r="F64">
-        <v>0.096603643468766195</v>
+        <v>0.096632377449571899</v>
       </c>
       <c r="G64">
-        <v>0.070628124820412599</v>
+        <v>0.070599390839606896</v>
       </c>
       <c r="H64">
         <v>0.82794092293546351</v>
@@ -48487,13 +48895,13 @@
         <v>0.0048273087753576997</v>
       </c>
       <c r="J64">
-        <v>0.1522833473867965</v>
+        <v>0.1523119821652141</v>
       </c>
       <c r="K64">
         <v>0.0039004433567310002</v>
       </c>
       <c r="L64">
-        <v>0.838115457923024</v>
+        <v>0.83808682314460636</v>
       </c>
       <c r="M64">
         <v>0.0057007513623823997</v>
@@ -48522,10 +48930,10 @@
         <v>139220.821812685</v>
       </c>
       <c r="D65">
-        <v>0.43220412033445388</v>
+        <v>0.43223285348964169</v>
       </c>
       <c r="E65">
-        <v>0.56779587966554601</v>
+        <v>0.56776714651035831</v>
       </c>
       <c r="F65">
         <v>0.34683791627158578</v>
@@ -48999,10 +49407,10 @@
         <v>221092.23061409939</v>
       </c>
       <c r="D74">
-        <v>0.4774875729103813</v>
+        <v>0.47751630606556911</v>
       </c>
       <c r="E74">
-        <v>0.52251242708961865</v>
+        <v>0.52248369393443095</v>
       </c>
       <c r="F74">
         <v>0.41970519782777349</v>
@@ -49052,10 +49460,10 @@
         <v>231238.92915412551</v>
       </c>
       <c r="D75">
-        <v>0.49546003103269931</v>
+        <v>0.49543129705189359</v>
       </c>
       <c r="E75">
-        <v>0.50453996896730069</v>
+        <v>0.50456870294810641</v>
       </c>
       <c r="F75">
         <v>0.43612436066892712</v>
@@ -49264,16 +49672,16 @@
         <v>277222.40869411401</v>
       </c>
       <c r="D79">
-        <v>0.49573312645461598</v>
+        <v>0.49576185960980368</v>
       </c>
       <c r="E79">
-        <v>0.50426687354538402</v>
+        <v>0.50423814039019632</v>
       </c>
       <c r="F79">
-        <v>0.43088239519581639</v>
+        <v>0.4309111283510042</v>
       </c>
       <c r="G79">
-        <v>0.2947734390713444</v>
+        <v>0.29474470591615659</v>
       </c>
       <c r="H79">
         <v>0.26546562077981778</v>
@@ -49317,16 +49725,16 @@
         <v>290120.56932791218</v>
       </c>
       <c r="D80">
-        <v>0.5050859146026091</v>
+        <v>0.50505718062180338</v>
       </c>
       <c r="E80">
-        <v>0.4949140853973909</v>
+        <v>0.49494281937819662</v>
       </c>
       <c r="F80">
-        <v>0.423165335325556</v>
+        <v>0.42313660134475028</v>
       </c>
       <c r="G80">
-        <v>0.29009827021435552</v>
+        <v>0.29012700419516119</v>
       </c>
       <c r="H80">
         <v>0.27699557496695593</v>
@@ -49959,10 +50367,10 @@
         <v>0.44430077866850559</v>
       </c>
       <c r="F92">
-        <v>0.33298853547108009</v>
+        <v>0.33301726862626779</v>
       </c>
       <c r="G92">
-        <v>0.38864465706979279</v>
+        <v>0.38861592391460509</v>
       </c>
       <c r="H92">
         <v>0.27029279085136337</v>
@@ -50012,10 +50420,10 @@
         <v>0.44888224814665822</v>
       </c>
       <c r="F93">
-        <v>0.31932072869375322</v>
+        <v>0.31929199471294761</v>
       </c>
       <c r="G93">
-        <v>0.40681570024711222</v>
+        <v>0.40684443422791788</v>
       </c>
       <c r="H93">
         <v>0.26438135739325319</v>
